--- a/output/codespa.xlsx
+++ b/output/codespa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -25,46 +25,46 @@
     <t>Gross_National_Income</t>
   </si>
   <si>
-    <t>Subvencion_publica</t>
-  </si>
-  <si>
-    <t>dinero_anyo_anterior_en_proyectos</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Latinoamerica</t>
+    <t>Public_Grant</t>
+  </si>
+  <si>
+    <t>NGO_Country_Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>Vision_ONGD_LatinAmerica</t>
   </si>
   <si>
     <t>Vision_ONGD_Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confesional</t>
+    <t>Vision_ONGD_Confessional</t>
   </si>
   <si>
     <t>Vision_ONGD_Universal</t>
   </si>
   <si>
-    <t>Fondos_Publicos_MAE</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Descentralizada</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Internacional</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Otros</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Total</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Cuotas</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Donaciones</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Empresas</t>
+    <t>Public_Funds_MAE</t>
+  </si>
+  <si>
+    <t>Public_Funds_Decentralized</t>
+  </si>
+  <si>
+    <t>Public_Funds_Internacional</t>
+  </si>
+  <si>
+    <t>Public_Funds_Other</t>
+  </si>
+  <si>
+    <t>Public_Funds_Total</t>
+  </si>
+  <si>
+    <t>Private_Funds_Cuotas</t>
+  </si>
+  <si>
+    <t>Public_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Public_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Proporcion_Fondos_Privados</t>
+  </si>
+  <si>
+    <t>Anyo_ONG</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Colony</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -798,7 +807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ113"/>
+  <dimension ref="A1:AM113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -807,7 +816,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -916,10 +925,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1018,15 +1036,24 @@
         <v>0.1217119632269181</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>604004</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1125,15 +1152,24 @@
         <v>0.1217119632269181</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>320921</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1232,15 +1268,24 @@
         <v>0.1217119632269181</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>364884</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1339,15 +1384,24 @@
         <v>0.1217119632269181</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>139544</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1446,15 +1500,24 @@
         <v>0.1217119632269181</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>144426</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1553,15 +1616,24 @@
         <v>0.1217119632269181</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>495526</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1660,15 +1732,24 @@
         <v>0.1217119632269181</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>170058</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1767,15 +1848,24 @@
         <v>0.1217119632269181</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>931973</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1874,15 +1964,24 @@
         <v>0.1217119632269181</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>387394</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1981,15 +2080,24 @@
         <v>0.1217119632269181</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>104049.5</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2088,15 +2196,24 @@
         <v>0.1217119632269181</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>1265092</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2195,15 +2312,24 @@
         <v>0.1217119632269181</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>183276</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2302,15 +2428,24 @@
         <v>0.1217119632269181</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>437132</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2409,15 +2544,24 @@
         <v>0.1217119632269181</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>578576</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2516,15 +2660,24 @@
         <v>0.02936607496194514</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>155908</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2623,15 +2776,24 @@
         <v>0.02936607496194514</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>162579</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2730,15 +2892,24 @@
         <v>0.02936607496194514</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>1139300</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2837,15 +3008,24 @@
         <v>0.02936607496194514</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>219120</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2944,15 +3124,24 @@
         <v>0.02936607496194514</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>1</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>655239</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3051,15 +3240,24 @@
         <v>0.02936607496194514</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>1160</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3158,15 +3356,24 @@
         <v>0.02936607496194514</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>1</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
         <v>191427</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3265,15 +3472,24 @@
         <v>0.02936607496194514</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>291313</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3372,15 +3588,24 @@
         <v>0.02936607496194514</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>359069</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3479,15 +3704,24 @@
         <v>0.02936607496194514</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>1</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>1121436</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3586,15 +3820,24 @@
         <v>0.02936607496194514</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>1</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
         <v>1296863</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3693,15 +3936,24 @@
         <v>0.02936607496194514</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>1</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
         <v>572143</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3800,15 +4052,24 @@
         <v>0.02936607496194514</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>1</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
         <v>1662945</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3907,15 +4168,24 @@
         <v>0.02936607496194514</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>1</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
         <v>101904</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4014,15 +4284,24 @@
         <v>0.02936607496194514</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
         <v>854982</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4121,15 +4400,24 @@
         <v>0.02936607496194514</v>
       </c>
       <c r="AI31">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
         <v>549068</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4228,15 +4516,24 @@
         <v>0.1880262803382775</v>
       </c>
       <c r="AI32">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
         <v>484688</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4335,15 +4632,24 @@
         <v>0.1880262803382775</v>
       </c>
       <c r="AI33">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
         <v>349062</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4442,15 +4748,24 @@
         <v>0.1880262803382775</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>1</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
         <v>3580946</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4549,15 +4864,24 @@
         <v>0.1880262803382775</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>1</v>
+      </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
         <v>333992</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4656,15 +4980,24 @@
         <v>0.1880262803382775</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>1</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
         <v>981843</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -4763,15 +5096,24 @@
         <v>0.1880262803382775</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
         <v>79876</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4870,15 +5212,24 @@
         <v>0.1880262803382775</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>1</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
         <v>661155</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -4977,15 +5328,24 @@
         <v>0.1880262803382775</v>
       </c>
       <c r="AI39">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>1</v>
+      </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AM39">
         <v>760607</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5084,15 +5444,24 @@
         <v>0.1880262803382775</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
         <v>740195</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5191,15 +5560,24 @@
         <v>0.1880262803382775</v>
       </c>
       <c r="AI41">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>1</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
         <v>5766559</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5298,15 +5676,24 @@
         <v>0.1880262803382775</v>
       </c>
       <c r="AI42">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>1</v>
+      </c>
+      <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42">
         <v>6559745</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:39">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5405,15 +5792,24 @@
         <v>0.1880262803382775</v>
       </c>
       <c r="AI43">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>1</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
         <v>6973525</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:39">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5512,15 +5908,24 @@
         <v>0.1880262803382775</v>
       </c>
       <c r="AI44">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>1</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44">
         <v>7514787</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:39">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5619,15 +6024,24 @@
         <v>0.1880262803382775</v>
       </c>
       <c r="AI45">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>1</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AM45">
         <v>2378514</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:39">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5726,15 +6140,24 @@
         <v>0.1880262803382775</v>
       </c>
       <c r="AI46">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AM46">
         <v>2378514</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:39">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -5833,15 +6256,24 @@
         <v>0.1807635591481638</v>
       </c>
       <c r="AI47">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>1</v>
+      </c>
+      <c r="AL47">
+        <v>1</v>
+      </c>
+      <c r="AM47">
         <v>161159.5</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:39">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -5940,15 +6372,24 @@
         <v>0.1807635591481638</v>
       </c>
       <c r="AI48">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>1</v>
+      </c>
+      <c r="AL48">
+        <v>1</v>
+      </c>
+      <c r="AM48">
         <v>871398</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:39">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6047,15 +6488,24 @@
         <v>0.1807635591481638</v>
       </c>
       <c r="AI49">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>1</v>
+      </c>
+      <c r="AL49">
+        <v>1</v>
+      </c>
+      <c r="AM49">
         <v>974220.5</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:39">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6154,15 +6604,24 @@
         <v>0.1807635591481638</v>
       </c>
       <c r="AI50">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>1</v>
+      </c>
+      <c r="AL50">
+        <v>1</v>
+      </c>
+      <c r="AM50">
         <v>801820.5</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:39">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6261,15 +6720,24 @@
         <v>0.1807635591481638</v>
       </c>
       <c r="AI51">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>0</v>
+      </c>
+      <c r="AL51">
+        <v>1</v>
+      </c>
+      <c r="AM51">
         <v>1242592.5</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:39">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6368,15 +6836,24 @@
         <v>0.1807635591481638</v>
       </c>
       <c r="AI52">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>1</v>
+      </c>
+      <c r="AL52">
+        <v>1</v>
+      </c>
+      <c r="AM52">
         <v>340627.5</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:39">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6475,15 +6952,24 @@
         <v>0.1807635591481638</v>
       </c>
       <c r="AI53">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>1</v>
+      </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AM53">
         <v>1175648</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:39">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6582,15 +7068,24 @@
         <v>0.1807635591481638</v>
       </c>
       <c r="AI54">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>1</v>
+      </c>
+      <c r="AL54">
+        <v>1</v>
+      </c>
+      <c r="AM54">
         <v>251041.5</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:39">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -6689,15 +7184,24 @@
         <v>0.1807635591481638</v>
       </c>
       <c r="AI55">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>1</v>
+      </c>
+      <c r="AL55">
+        <v>1</v>
+      </c>
+      <c r="AM55">
         <v>251041.5</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:39">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -6796,15 +7300,24 @@
         <v>0.1807635591481638</v>
       </c>
       <c r="AI56">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>1</v>
+      </c>
+      <c r="AL56">
+        <v>1</v>
+      </c>
+      <c r="AM56">
         <v>962403.5</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:39">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -6903,15 +7416,24 @@
         <v>0.1807635591481638</v>
       </c>
       <c r="AI57">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ57">
+        <v>0</v>
+      </c>
+      <c r="AK57">
+        <v>0</v>
+      </c>
+      <c r="AL57">
+        <v>1</v>
+      </c>
+      <c r="AM57">
         <v>914062.5</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:39">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -7010,15 +7532,24 @@
         <v>0.1807635591481638</v>
       </c>
       <c r="AI58">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ58">
+        <v>0</v>
+      </c>
+      <c r="AK58">
+        <v>0</v>
+      </c>
+      <c r="AL58">
+        <v>1</v>
+      </c>
+      <c r="AM58">
         <v>1041401</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:39">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7117,15 +7648,24 @@
         <v>0.1807635591481638</v>
       </c>
       <c r="AI59">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <v>1</v>
+      </c>
+      <c r="AL59">
+        <v>1</v>
+      </c>
+      <c r="AM59">
         <v>696500</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:39">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7224,15 +7764,24 @@
         <v>0.1807635591481638</v>
       </c>
       <c r="AI60">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ60">
+        <v>0</v>
+      </c>
+      <c r="AK60">
+        <v>0</v>
+      </c>
+      <c r="AL60">
+        <v>1</v>
+      </c>
+      <c r="AM60">
         <v>616150.5</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:39">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7331,15 +7880,24 @@
         <v>0.2730336707197025</v>
       </c>
       <c r="AI61">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>1</v>
+      </c>
+      <c r="AL61">
+        <v>1</v>
+      </c>
+      <c r="AM61">
         <v>161159.5</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:39">
       <c r="A62" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -7438,15 +7996,24 @@
         <v>0.2730336707197025</v>
       </c>
       <c r="AI62">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>1</v>
+      </c>
+      <c r="AL62">
+        <v>1</v>
+      </c>
+      <c r="AM62">
         <v>871398</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:39">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -7545,15 +8112,24 @@
         <v>0.2730336707197025</v>
       </c>
       <c r="AI63">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ63">
+        <v>0</v>
+      </c>
+      <c r="AK63">
+        <v>1</v>
+      </c>
+      <c r="AL63">
+        <v>1</v>
+      </c>
+      <c r="AM63">
         <v>974220.5</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:39">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -7652,15 +8228,24 @@
         <v>0.2730336707197025</v>
       </c>
       <c r="AI64">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ64">
+        <v>0</v>
+      </c>
+      <c r="AK64">
+        <v>1</v>
+      </c>
+      <c r="AL64">
+        <v>1</v>
+      </c>
+      <c r="AM64">
         <v>801820.5</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:39">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -7759,15 +8344,24 @@
         <v>0.2730336707197025</v>
       </c>
       <c r="AI65">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>0</v>
+      </c>
+      <c r="AL65">
+        <v>1</v>
+      </c>
+      <c r="AM65">
         <v>1242592.5</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:39">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -7866,15 +8460,24 @@
         <v>0.2730336707197025</v>
       </c>
       <c r="AI66">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ66">
+        <v>0</v>
+      </c>
+      <c r="AK66">
+        <v>1</v>
+      </c>
+      <c r="AL66">
+        <v>1</v>
+      </c>
+      <c r="AM66">
         <v>340627.5</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:39">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -7973,15 +8576,24 @@
         <v>0.2730336707197025</v>
       </c>
       <c r="AI67">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ67">
+        <v>0</v>
+      </c>
+      <c r="AK67">
+        <v>1</v>
+      </c>
+      <c r="AL67">
+        <v>1</v>
+      </c>
+      <c r="AM67">
         <v>1175648</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:39">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -8080,15 +8692,24 @@
         <v>0.2730336707197025</v>
       </c>
       <c r="AI68">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ68">
+        <v>0</v>
+      </c>
+      <c r="AK68">
+        <v>1</v>
+      </c>
+      <c r="AL68">
+        <v>1</v>
+      </c>
+      <c r="AM68">
         <v>251041.5</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:39">
       <c r="A69" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -8187,15 +8808,24 @@
         <v>0.2730336707197025</v>
       </c>
       <c r="AI69">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ69">
+        <v>0</v>
+      </c>
+      <c r="AK69">
+        <v>1</v>
+      </c>
+      <c r="AL69">
+        <v>1</v>
+      </c>
+      <c r="AM69">
         <v>251041.5</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:39">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -8294,15 +8924,24 @@
         <v>0.2730336707197025</v>
       </c>
       <c r="AI70">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ70">
+        <v>0</v>
+      </c>
+      <c r="AK70">
+        <v>1</v>
+      </c>
+      <c r="AL70">
+        <v>1</v>
+      </c>
+      <c r="AM70">
         <v>962403.5</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:39">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -8401,15 +9040,24 @@
         <v>0.2730336707197025</v>
       </c>
       <c r="AI71">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ71">
+        <v>0</v>
+      </c>
+      <c r="AK71">
+        <v>0</v>
+      </c>
+      <c r="AL71">
+        <v>1</v>
+      </c>
+      <c r="AM71">
         <v>914062.5</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:39">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -8508,15 +9156,24 @@
         <v>0.2730336707197025</v>
       </c>
       <c r="AI72">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ72">
+        <v>0</v>
+      </c>
+      <c r="AK72">
+        <v>0</v>
+      </c>
+      <c r="AL72">
+        <v>1</v>
+      </c>
+      <c r="AM72">
         <v>1041401</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:39">
       <c r="A73" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -8615,15 +9272,24 @@
         <v>0.2730336707197025</v>
       </c>
       <c r="AI73">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ73">
+        <v>0</v>
+      </c>
+      <c r="AK73">
+        <v>1</v>
+      </c>
+      <c r="AL73">
+        <v>1</v>
+      </c>
+      <c r="AM73">
         <v>696500</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:39">
       <c r="A74" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -8722,15 +9388,24 @@
         <v>0.2730336707197025</v>
       </c>
       <c r="AI74">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ74">
+        <v>0</v>
+      </c>
+      <c r="AK74">
+        <v>0</v>
+      </c>
+      <c r="AL74">
+        <v>1</v>
+      </c>
+      <c r="AM74">
         <v>616150.5</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:39">
       <c r="A75" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -8829,15 +9504,24 @@
         <v>0.113839022249227</v>
       </c>
       <c r="AI75">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ75">
+        <v>0</v>
+      </c>
+      <c r="AK75">
+        <v>0</v>
+      </c>
+      <c r="AL75">
+        <v>1</v>
+      </c>
+      <c r="AM75">
         <v>147231.38</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:39">
       <c r="A76" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -8936,15 +9620,24 @@
         <v>0.113839022249227</v>
       </c>
       <c r="AI76">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ76">
+        <v>0</v>
+      </c>
+      <c r="AK76">
+        <v>1</v>
+      </c>
+      <c r="AL76">
+        <v>1</v>
+      </c>
+      <c r="AM76">
         <v>81718</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:39">
       <c r="A77" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -9043,15 +9736,24 @@
         <v>0.113839022249227</v>
       </c>
       <c r="AI77">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ77">
+        <v>0</v>
+      </c>
+      <c r="AK77">
+        <v>1</v>
+      </c>
+      <c r="AL77">
+        <v>1</v>
+      </c>
+      <c r="AM77">
         <v>149416.5</v>
       </c>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:39">
       <c r="A78" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -9150,15 +9852,24 @@
         <v>0.113839022249227</v>
       </c>
       <c r="AI78">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ78">
+        <v>0</v>
+      </c>
+      <c r="AK78">
+        <v>1</v>
+      </c>
+      <c r="AL78">
+        <v>1</v>
+      </c>
+      <c r="AM78">
         <v>1818097.5</v>
       </c>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:39">
       <c r="A79" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -9257,15 +9968,24 @@
         <v>0.113839022249227</v>
       </c>
       <c r="AI79">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ79">
+        <v>0</v>
+      </c>
+      <c r="AK79">
+        <v>1</v>
+      </c>
+      <c r="AL79">
+        <v>1</v>
+      </c>
+      <c r="AM79">
         <v>17288.5</v>
       </c>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:39">
       <c r="A80" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -9364,15 +10084,24 @@
         <v>0.113839022249227</v>
       </c>
       <c r="AI80">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ80">
+        <v>0</v>
+      </c>
+      <c r="AK80">
+        <v>1</v>
+      </c>
+      <c r="AL80">
+        <v>1</v>
+      </c>
+      <c r="AM80">
         <v>41750.46</v>
       </c>
     </row>
-    <row r="81" spans="1:36">
+    <row r="81" spans="1:39">
       <c r="A81" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -9471,15 +10200,24 @@
         <v>0.113839022249227</v>
       </c>
       <c r="AI81">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ81">
+        <v>0</v>
+      </c>
+      <c r="AK81">
+        <v>1</v>
+      </c>
+      <c r="AL81">
+        <v>1</v>
+      </c>
+      <c r="AM81">
         <v>228774</v>
       </c>
     </row>
-    <row r="82" spans="1:36">
+    <row r="82" spans="1:39">
       <c r="A82" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -9578,15 +10316,24 @@
         <v>0.113839022249227</v>
       </c>
       <c r="AI82">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ82">
+        <v>0</v>
+      </c>
+      <c r="AK82">
+        <v>1</v>
+      </c>
+      <c r="AL82">
+        <v>1</v>
+      </c>
+      <c r="AM82">
         <v>2721</v>
       </c>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:39">
       <c r="A83" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -9685,15 +10432,24 @@
         <v>0.113839022249227</v>
       </c>
       <c r="AI83">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ83">
+        <v>0</v>
+      </c>
+      <c r="AK83">
+        <v>1</v>
+      </c>
+      <c r="AL83">
+        <v>1</v>
+      </c>
+      <c r="AM83">
         <v>206109.53</v>
       </c>
     </row>
-    <row r="84" spans="1:36">
+    <row r="84" spans="1:39">
       <c r="A84" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -9792,15 +10548,24 @@
         <v>0.113839022249227</v>
       </c>
       <c r="AI84">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ84">
+        <v>0</v>
+      </c>
+      <c r="AK84">
+        <v>1</v>
+      </c>
+      <c r="AL84">
+        <v>1</v>
+      </c>
+      <c r="AM84">
         <v>136471</v>
       </c>
     </row>
-    <row r="85" spans="1:36">
+    <row r="85" spans="1:39">
       <c r="A85" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -9899,15 +10664,24 @@
         <v>0.113839022249227</v>
       </c>
       <c r="AI85">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ85">
+        <v>0</v>
+      </c>
+      <c r="AK85">
+        <v>1</v>
+      </c>
+      <c r="AL85">
+        <v>1</v>
+      </c>
+      <c r="AM85">
         <v>310801.5</v>
       </c>
     </row>
-    <row r="86" spans="1:36">
+    <row r="86" spans="1:39">
       <c r="A86" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -10006,15 +10780,24 @@
         <v>0.113839022249227</v>
       </c>
       <c r="AI86">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ86">
+        <v>0</v>
+      </c>
+      <c r="AK86">
+        <v>0</v>
+      </c>
+      <c r="AL86">
+        <v>1</v>
+      </c>
+      <c r="AM86">
         <v>41271.5</v>
       </c>
     </row>
-    <row r="87" spans="1:36">
+    <row r="87" spans="1:39">
       <c r="A87" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -10113,15 +10896,24 @@
         <v>0.113839022249227</v>
       </c>
       <c r="AI87">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ87">
+        <v>0</v>
+      </c>
+      <c r="AK87">
+        <v>0</v>
+      </c>
+      <c r="AL87">
+        <v>1</v>
+      </c>
+      <c r="AM87">
         <v>376066</v>
       </c>
     </row>
-    <row r="88" spans="1:36">
+    <row r="88" spans="1:39">
       <c r="A88" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -10220,15 +11012,24 @@
         <v>0.113839022249227</v>
       </c>
       <c r="AI88">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ88">
+        <v>0</v>
+      </c>
+      <c r="AK88">
+        <v>0</v>
+      </c>
+      <c r="AL88">
+        <v>1</v>
+      </c>
+      <c r="AM88">
         <v>47500</v>
       </c>
     </row>
-    <row r="89" spans="1:36">
+    <row r="89" spans="1:39">
       <c r="A89" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -10327,15 +11128,24 @@
         <v>0.6456047492298397</v>
       </c>
       <c r="AI89">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ89">
+        <v>0</v>
+      </c>
+      <c r="AK89">
+        <v>0</v>
+      </c>
+      <c r="AL89">
+        <v>1</v>
+      </c>
+      <c r="AM89">
         <v>147231.38</v>
       </c>
     </row>
-    <row r="90" spans="1:36">
+    <row r="90" spans="1:39">
       <c r="A90" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -10434,15 +11244,24 @@
         <v>0.6456047492298397</v>
       </c>
       <c r="AI90">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ90">
+        <v>0</v>
+      </c>
+      <c r="AK90">
+        <v>1</v>
+      </c>
+      <c r="AL90">
+        <v>1</v>
+      </c>
+      <c r="AM90">
         <v>81718</v>
       </c>
     </row>
-    <row r="91" spans="1:36">
+    <row r="91" spans="1:39">
       <c r="A91" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -10541,15 +11360,24 @@
         <v>0.6456047492298397</v>
       </c>
       <c r="AI91">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ91">
+        <v>0</v>
+      </c>
+      <c r="AK91">
+        <v>1</v>
+      </c>
+      <c r="AL91">
+        <v>1</v>
+      </c>
+      <c r="AM91">
         <v>149416.5</v>
       </c>
     </row>
-    <row r="92" spans="1:36">
+    <row r="92" spans="1:39">
       <c r="A92" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -10648,15 +11476,24 @@
         <v>0.6456047492298397</v>
       </c>
       <c r="AI92">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ92">
+        <v>0</v>
+      </c>
+      <c r="AK92">
+        <v>1</v>
+      </c>
+      <c r="AL92">
+        <v>1</v>
+      </c>
+      <c r="AM92">
         <v>1818097.5</v>
       </c>
     </row>
-    <row r="93" spans="1:36">
+    <row r="93" spans="1:39">
       <c r="A93" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -10755,15 +11592,24 @@
         <v>0.6456047492298397</v>
       </c>
       <c r="AI93">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ93">
+        <v>0</v>
+      </c>
+      <c r="AK93">
+        <v>1</v>
+      </c>
+      <c r="AL93">
+        <v>1</v>
+      </c>
+      <c r="AM93">
         <v>17288.5</v>
       </c>
     </row>
-    <row r="94" spans="1:36">
+    <row r="94" spans="1:39">
       <c r="A94" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -10862,15 +11708,24 @@
         <v>0.6456047492298397</v>
       </c>
       <c r="AI94">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ94">
+        <v>0</v>
+      </c>
+      <c r="AK94">
+        <v>1</v>
+      </c>
+      <c r="AL94">
+        <v>1</v>
+      </c>
+      <c r="AM94">
         <v>41750.46</v>
       </c>
     </row>
-    <row r="95" spans="1:36">
+    <row r="95" spans="1:39">
       <c r="A95" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -10969,15 +11824,24 @@
         <v>0.6456047492298397</v>
       </c>
       <c r="AI95">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ95">
+        <v>0</v>
+      </c>
+      <c r="AK95">
+        <v>1</v>
+      </c>
+      <c r="AL95">
+        <v>1</v>
+      </c>
+      <c r="AM95">
         <v>228774</v>
       </c>
     </row>
-    <row r="96" spans="1:36">
+    <row r="96" spans="1:39">
       <c r="A96" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -11076,15 +11940,24 @@
         <v>0.6456047492298397</v>
       </c>
       <c r="AI96">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ96">
+        <v>0</v>
+      </c>
+      <c r="AK96">
+        <v>1</v>
+      </c>
+      <c r="AL96">
+        <v>1</v>
+      </c>
+      <c r="AM96">
         <v>2721</v>
       </c>
     </row>
-    <row r="97" spans="1:36">
+    <row r="97" spans="1:39">
       <c r="A97" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -11183,15 +12056,24 @@
         <v>0.6456047492298397</v>
       </c>
       <c r="AI97">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ97">
+        <v>0</v>
+      </c>
+      <c r="AK97">
+        <v>1</v>
+      </c>
+      <c r="AL97">
+        <v>1</v>
+      </c>
+      <c r="AM97">
         <v>206109.53</v>
       </c>
     </row>
-    <row r="98" spans="1:36">
+    <row r="98" spans="1:39">
       <c r="A98" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -11290,15 +12172,24 @@
         <v>0.6456047492298397</v>
       </c>
       <c r="AI98">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ98">
+        <v>0</v>
+      </c>
+      <c r="AK98">
+        <v>1</v>
+      </c>
+      <c r="AL98">
+        <v>1</v>
+      </c>
+      <c r="AM98">
         <v>136471</v>
       </c>
     </row>
-    <row r="99" spans="1:36">
+    <row r="99" spans="1:39">
       <c r="A99" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -11397,15 +12288,24 @@
         <v>0.6456047492298397</v>
       </c>
       <c r="AI99">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ99">
+        <v>0</v>
+      </c>
+      <c r="AK99">
+        <v>1</v>
+      </c>
+      <c r="AL99">
+        <v>1</v>
+      </c>
+      <c r="AM99">
         <v>310801.5</v>
       </c>
     </row>
-    <row r="100" spans="1:36">
+    <row r="100" spans="1:39">
       <c r="A100" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -11504,15 +12404,24 @@
         <v>0.6456047492298397</v>
       </c>
       <c r="AI100">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ100">
+        <v>0</v>
+      </c>
+      <c r="AK100">
+        <v>0</v>
+      </c>
+      <c r="AL100">
+        <v>1</v>
+      </c>
+      <c r="AM100">
         <v>41271.5</v>
       </c>
     </row>
-    <row r="101" spans="1:36">
+    <row r="101" spans="1:39">
       <c r="A101" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -11611,15 +12520,24 @@
         <v>0.6456047492298397</v>
       </c>
       <c r="AI101">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ101">
+        <v>0</v>
+      </c>
+      <c r="AK101">
+        <v>0</v>
+      </c>
+      <c r="AL101">
+        <v>1</v>
+      </c>
+      <c r="AM101">
         <v>376066</v>
       </c>
     </row>
-    <row r="102" spans="1:36">
+    <row r="102" spans="1:39">
       <c r="A102" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -11718,15 +12636,24 @@
         <v>0.6456047492298397</v>
       </c>
       <c r="AI102">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ102">
+        <v>0</v>
+      </c>
+      <c r="AK102">
+        <v>0</v>
+      </c>
+      <c r="AL102">
+        <v>1</v>
+      </c>
+      <c r="AM102">
         <v>47500</v>
       </c>
     </row>
-    <row r="103" spans="1:36">
+    <row r="103" spans="1:39">
       <c r="A103" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -11825,15 +12752,24 @@
         <v>0.4183638262231078</v>
       </c>
       <c r="AI103">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ103">
+        <v>0</v>
+      </c>
+      <c r="AK103">
+        <v>0</v>
+      </c>
+      <c r="AL103">
+        <v>1</v>
+      </c>
+      <c r="AM103">
         <v>355195</v>
       </c>
     </row>
-    <row r="104" spans="1:36">
+    <row r="104" spans="1:39">
       <c r="A104" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -11932,15 +12868,24 @@
         <v>0.4183638262231078</v>
       </c>
       <c r="AI104">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ104">
+        <v>0</v>
+      </c>
+      <c r="AK104">
+        <v>1</v>
+      </c>
+      <c r="AL104">
+        <v>1</v>
+      </c>
+      <c r="AM104">
         <v>177597</v>
       </c>
     </row>
-    <row r="105" spans="1:36">
+    <row r="105" spans="1:39">
       <c r="A105" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -12039,15 +12984,24 @@
         <v>0.4183638262231078</v>
       </c>
       <c r="AI105">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ105">
+        <v>0</v>
+      </c>
+      <c r="AK105">
+        <v>1</v>
+      </c>
+      <c r="AL105">
+        <v>1</v>
+      </c>
+      <c r="AM105">
         <v>155195</v>
       </c>
     </row>
-    <row r="106" spans="1:36">
+    <row r="106" spans="1:39">
       <c r="A106" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -12146,15 +13100,24 @@
         <v>0.4183638262231078</v>
       </c>
       <c r="AI106">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ106">
+        <v>0</v>
+      </c>
+      <c r="AK106">
+        <v>0</v>
+      </c>
+      <c r="AL106">
+        <v>1</v>
+      </c>
+      <c r="AM106">
         <v>232793</v>
       </c>
     </row>
-    <row r="107" spans="1:36">
+    <row r="107" spans="1:39">
       <c r="A107" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -12253,15 +13216,24 @@
         <v>0.4183638262231078</v>
       </c>
       <c r="AI107">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ107">
+        <v>0</v>
+      </c>
+      <c r="AK107">
+        <v>1</v>
+      </c>
+      <c r="AL107">
+        <v>1</v>
+      </c>
+      <c r="AM107">
         <v>976787</v>
       </c>
     </row>
-    <row r="108" spans="1:36">
+    <row r="108" spans="1:39">
       <c r="A108" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -12360,15 +13332,24 @@
         <v>0.4183638262231078</v>
       </c>
       <c r="AI108">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ108">
+        <v>0</v>
+      </c>
+      <c r="AK108">
+        <v>1</v>
+      </c>
+      <c r="AL108">
+        <v>1</v>
+      </c>
+      <c r="AM108">
         <v>177597</v>
       </c>
     </row>
-    <row r="109" spans="1:36">
+    <row r="109" spans="1:39">
       <c r="A109" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -12467,15 +13448,24 @@
         <v>0.4183638262231078</v>
       </c>
       <c r="AI109">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ109">
+        <v>0</v>
+      </c>
+      <c r="AK109">
+        <v>1</v>
+      </c>
+      <c r="AL109">
+        <v>1</v>
+      </c>
+      <c r="AM109">
         <v>266396</v>
       </c>
     </row>
-    <row r="110" spans="1:36">
+    <row r="110" spans="1:39">
       <c r="A110" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -12574,15 +13564,24 @@
         <v>0.4183638262231078</v>
       </c>
       <c r="AI110">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ110">
+        <v>0</v>
+      </c>
+      <c r="AK110">
+        <v>1</v>
+      </c>
+      <c r="AL110">
+        <v>1</v>
+      </c>
+      <c r="AM110">
         <v>788805</v>
       </c>
     </row>
-    <row r="111" spans="1:36">
+    <row r="111" spans="1:39">
       <c r="A111" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -12681,15 +13680,24 @@
         <v>0.4183638262231078</v>
       </c>
       <c r="AI111">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ111">
+        <v>0</v>
+      </c>
+      <c r="AK111">
+        <v>1</v>
+      </c>
+      <c r="AL111">
+        <v>1</v>
+      </c>
+      <c r="AM111">
         <v>88798</v>
       </c>
     </row>
-    <row r="112" spans="1:36">
+    <row r="112" spans="1:39">
       <c r="A112" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -12788,15 +13796,24 @@
         <v>0.4183638262231078</v>
       </c>
       <c r="AI112">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ112">
+        <v>0</v>
+      </c>
+      <c r="AK112">
+        <v>1</v>
+      </c>
+      <c r="AL112">
+        <v>1</v>
+      </c>
+      <c r="AM112">
         <v>799190</v>
       </c>
     </row>
-    <row r="113" spans="1:36">
+    <row r="113" spans="1:39">
       <c r="A113" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -12895,9 +13912,18 @@
         <v>0.4183638262231078</v>
       </c>
       <c r="AI113">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ113">
+        <v>0</v>
+      </c>
+      <c r="AK113">
+        <v>0</v>
+      </c>
+      <c r="AL113">
+        <v>1</v>
+      </c>
+      <c r="AM113">
         <v>243994</v>
       </c>
     </row>

--- a/output/codespa.xlsx
+++ b/output/codespa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -61,10 +61,10 @@
     <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Public_Funds_Donations</t>
-  </si>
-  <si>
-    <t>Public_Funds_Companies</t>
+    <t>Private_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Private_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -118,6 +118,9 @@
     <t>Proporcion_Fondos_Privados</t>
   </si>
   <si>
+    <t>Proporcion_Fondos_MAE</t>
+  </si>
+  <si>
     <t>Anyo_ONG</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>Colony</t>
+  </si>
+  <si>
+    <t>Delegacion</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -807,7 +813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM113"/>
+  <dimension ref="A1:AO113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -816,7 +822,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -934,10 +940,16 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1036,24 +1048,30 @@
         <v>0.1217119632269181</v>
       </c>
       <c r="AI2">
+        <v>0.5491056037100378</v>
+      </c>
+      <c r="AJ2">
         <v>1985</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>1</v>
       </c>
       <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
         <v>604004</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1152,24 +1170,30 @@
         <v>0.1217119632269181</v>
       </c>
       <c r="AI3">
+        <v>0.5491056037100378</v>
+      </c>
+      <c r="AJ3">
         <v>1985</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>1</v>
       </c>
       <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
         <v>320921</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1268,24 +1292,30 @@
         <v>0.1217119632269181</v>
       </c>
       <c r="AI4">
+        <v>0.5491056037100378</v>
+      </c>
+      <c r="AJ4">
         <v>1985</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4">
         <v>1</v>
       </c>
       <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
         <v>364884</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1384,24 +1414,30 @@
         <v>0.1217119632269181</v>
       </c>
       <c r="AI5">
+        <v>0.5491056037100378</v>
+      </c>
+      <c r="AJ5">
         <v>1985</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5">
         <v>1</v>
       </c>
       <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
         <v>139544</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1500,24 +1536,30 @@
         <v>0.1217119632269181</v>
       </c>
       <c r="AI6">
+        <v>0.5491056037100378</v>
+      </c>
+      <c r="AJ6">
         <v>1985</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6">
         <v>1</v>
       </c>
       <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
         <v>144426</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1616,24 +1658,30 @@
         <v>0.1217119632269181</v>
       </c>
       <c r="AI7">
+        <v>0.5491056037100378</v>
+      </c>
+      <c r="AJ7">
         <v>1985</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
       <c r="AK7">
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
         <v>495526</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1732,24 +1780,30 @@
         <v>0.1217119632269181</v>
       </c>
       <c r="AI8">
+        <v>0.5491056037100378</v>
+      </c>
+      <c r="AJ8">
         <v>1985</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8">
         <v>1</v>
       </c>
       <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
         <v>170058</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1848,24 +1902,30 @@
         <v>0.1217119632269181</v>
       </c>
       <c r="AI9">
+        <v>0.5491056037100378</v>
+      </c>
+      <c r="AJ9">
         <v>1985</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9">
         <v>1</v>
       </c>
       <c r="AM9">
+        <v>1</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
         <v>931973</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1964,24 +2024,30 @@
         <v>0.1217119632269181</v>
       </c>
       <c r="AI10">
+        <v>0.5491056037100378</v>
+      </c>
+      <c r="AJ10">
         <v>1985</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
       <c r="AK10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10">
         <v>1</v>
       </c>
       <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
         <v>387394</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2080,24 +2146,30 @@
         <v>0.1217119632269181</v>
       </c>
       <c r="AI11">
+        <v>0.5491056037100378</v>
+      </c>
+      <c r="AJ11">
         <v>1985</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11">
         <v>1</v>
       </c>
       <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
         <v>104049.5</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2196,24 +2268,30 @@
         <v>0.1217119632269181</v>
       </c>
       <c r="AI12">
+        <v>0.5491056037100378</v>
+      </c>
+      <c r="AJ12">
         <v>1985</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
       <c r="AK12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12">
         <v>1</v>
       </c>
       <c r="AM12">
+        <v>1</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
         <v>1265092</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2312,24 +2390,30 @@
         <v>0.1217119632269181</v>
       </c>
       <c r="AI13">
+        <v>0.5491056037100378</v>
+      </c>
+      <c r="AJ13">
         <v>1985</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
       <c r="AK13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13">
         <v>1</v>
       </c>
       <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
         <v>183276</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2428,24 +2512,30 @@
         <v>0.1217119632269181</v>
       </c>
       <c r="AI14">
+        <v>0.5491056037100378</v>
+      </c>
+      <c r="AJ14">
         <v>1985</v>
       </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
       <c r="AK14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14">
         <v>1</v>
       </c>
       <c r="AM14">
+        <v>1</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
         <v>437132</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2544,24 +2634,30 @@
         <v>0.1217119632269181</v>
       </c>
       <c r="AI15">
+        <v>0.5491056037100378</v>
+      </c>
+      <c r="AJ15">
         <v>1985</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
       <c r="AK15">
         <v>0</v>
       </c>
       <c r="AL15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15">
+        <v>1</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
         <v>578576</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2660,24 +2756,30 @@
         <v>0.02936607496194514</v>
       </c>
       <c r="AI16">
+        <v>0.9243777244837069</v>
+      </c>
+      <c r="AJ16">
         <v>1985</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
       <c r="AK16">
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
         <v>155908</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2776,24 +2878,30 @@
         <v>0.02936607496194514</v>
       </c>
       <c r="AI17">
+        <v>0.9243777244837069</v>
+      </c>
+      <c r="AJ17">
         <v>1985</v>
       </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
       <c r="AK17">
         <v>0</v>
       </c>
       <c r="AL17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
         <v>162579</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2892,24 +3000,30 @@
         <v>0.02936607496194514</v>
       </c>
       <c r="AI18">
+        <v>0.9243777244837069</v>
+      </c>
+      <c r="AJ18">
         <v>1985</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
       <c r="AK18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18">
         <v>1</v>
       </c>
       <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
         <v>1139300</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3008,24 +3122,30 @@
         <v>0.02936607496194514</v>
       </c>
       <c r="AI19">
+        <v>0.9243777244837069</v>
+      </c>
+      <c r="AJ19">
         <v>1985</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
       <c r="AK19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19">
         <v>1</v>
       </c>
       <c r="AM19">
+        <v>1</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
         <v>219120</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3124,24 +3244,30 @@
         <v>0.02936607496194514</v>
       </c>
       <c r="AI20">
+        <v>0.9243777244837069</v>
+      </c>
+      <c r="AJ20">
         <v>1985</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
       <c r="AK20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20">
         <v>1</v>
       </c>
       <c r="AM20">
+        <v>1</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
         <v>655239</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3240,24 +3366,30 @@
         <v>0.02936607496194514</v>
       </c>
       <c r="AI21">
+        <v>0.9243777244837069</v>
+      </c>
+      <c r="AJ21">
         <v>1985</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
       <c r="AK21">
         <v>0</v>
       </c>
       <c r="AL21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21">
+        <v>1</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
         <v>1160</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3356,24 +3488,30 @@
         <v>0.02936607496194514</v>
       </c>
       <c r="AI22">
+        <v>0.9243777244837069</v>
+      </c>
+      <c r="AJ22">
         <v>1985</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
       <c r="AK22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22">
         <v>1</v>
       </c>
       <c r="AM22">
+        <v>1</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
         <v>191427</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3472,24 +3610,30 @@
         <v>0.02936607496194514</v>
       </c>
       <c r="AI23">
+        <v>0.9243777244837069</v>
+      </c>
+      <c r="AJ23">
         <v>1985</v>
       </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
       <c r="AK23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23">
         <v>1</v>
       </c>
       <c r="AM23">
+        <v>1</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
         <v>291313</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3588,24 +3732,30 @@
         <v>0.02936607496194514</v>
       </c>
       <c r="AI24">
+        <v>0.9243777244837069</v>
+      </c>
+      <c r="AJ24">
         <v>1985</v>
       </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
       <c r="AK24">
         <v>0</v>
       </c>
       <c r="AL24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
         <v>359069</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3704,24 +3854,30 @@
         <v>0.02936607496194514</v>
       </c>
       <c r="AI25">
+        <v>0.9243777244837069</v>
+      </c>
+      <c r="AJ25">
         <v>1985</v>
       </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
       <c r="AK25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25">
         <v>1</v>
       </c>
       <c r="AM25">
+        <v>1</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
         <v>1121436</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3820,24 +3976,30 @@
         <v>0.02936607496194514</v>
       </c>
       <c r="AI26">
+        <v>0.9243777244837069</v>
+      </c>
+      <c r="AJ26">
         <v>1985</v>
       </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
       <c r="AK26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26">
         <v>1</v>
       </c>
       <c r="AM26">
+        <v>1</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
         <v>1296863</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3936,24 +4098,30 @@
         <v>0.02936607496194514</v>
       </c>
       <c r="AI27">
+        <v>0.9243777244837069</v>
+      </c>
+      <c r="AJ27">
         <v>1985</v>
       </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
       <c r="AK27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27">
         <v>1</v>
       </c>
       <c r="AM27">
+        <v>1</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
         <v>572143</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4052,24 +4220,30 @@
         <v>0.02936607496194514</v>
       </c>
       <c r="AI28">
+        <v>0.9243777244837069</v>
+      </c>
+      <c r="AJ28">
         <v>1985</v>
       </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
       <c r="AK28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28">
         <v>1</v>
       </c>
       <c r="AM28">
+        <v>1</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>1662945</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4168,24 +4342,30 @@
         <v>0.02936607496194514</v>
       </c>
       <c r="AI29">
+        <v>0.9243777244837069</v>
+      </c>
+      <c r="AJ29">
         <v>1985</v>
       </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
       <c r="AK29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29">
         <v>1</v>
       </c>
       <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
         <v>101904</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4284,24 +4464,30 @@
         <v>0.02936607496194514</v>
       </c>
       <c r="AI30">
+        <v>0.9243777244837069</v>
+      </c>
+      <c r="AJ30">
         <v>1985</v>
       </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
       <c r="AK30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30">
         <v>1</v>
       </c>
       <c r="AM30">
+        <v>1</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
         <v>854982</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:41">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4400,24 +4586,30 @@
         <v>0.02936607496194514</v>
       </c>
       <c r="AI31">
+        <v>0.9243777244837069</v>
+      </c>
+      <c r="AJ31">
         <v>1985</v>
       </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
       <c r="AK31">
         <v>0</v>
       </c>
       <c r="AL31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31">
+        <v>1</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
         <v>549068</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:41">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4516,24 +4708,30 @@
         <v>0.1880262803382775</v>
       </c>
       <c r="AI32">
+        <v>0.5402629337059948</v>
+      </c>
+      <c r="AJ32">
         <v>1985</v>
       </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
       <c r="AK32">
         <v>0</v>
       </c>
       <c r="AL32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32">
+        <v>1</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
         <v>484688</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:41">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4632,24 +4830,30 @@
         <v>0.1880262803382775</v>
       </c>
       <c r="AI33">
+        <v>0.5402629337059948</v>
+      </c>
+      <c r="AJ33">
         <v>1985</v>
       </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
       <c r="AK33">
         <v>0</v>
       </c>
       <c r="AL33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33">
+        <v>1</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
         <v>349062</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:41">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4748,24 +4952,30 @@
         <v>0.1880262803382775</v>
       </c>
       <c r="AI34">
+        <v>0.5402629337059948</v>
+      </c>
+      <c r="AJ34">
         <v>1985</v>
       </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
       <c r="AK34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34">
         <v>1</v>
       </c>
       <c r="AM34">
+        <v>1</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
         <v>3580946</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:41">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4864,24 +5074,30 @@
         <v>0.1880262803382775</v>
       </c>
       <c r="AI35">
+        <v>0.5402629337059948</v>
+      </c>
+      <c r="AJ35">
         <v>1985</v>
       </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
       <c r="AK35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35">
         <v>1</v>
       </c>
       <c r="AM35">
+        <v>1</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
         <v>333992</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:41">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4980,24 +5196,30 @@
         <v>0.1880262803382775</v>
       </c>
       <c r="AI36">
+        <v>0.5402629337059948</v>
+      </c>
+      <c r="AJ36">
         <v>1985</v>
       </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
       <c r="AK36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36">
         <v>1</v>
       </c>
       <c r="AM36">
+        <v>1</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
         <v>981843</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:41">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -5096,24 +5318,30 @@
         <v>0.1880262803382775</v>
       </c>
       <c r="AI37">
+        <v>0.5402629337059948</v>
+      </c>
+      <c r="AJ37">
         <v>1985</v>
       </c>
-      <c r="AJ37">
-        <v>0</v>
-      </c>
       <c r="AK37">
         <v>0</v>
       </c>
       <c r="AL37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37">
+        <v>1</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
         <v>79876</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:41">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5212,24 +5440,30 @@
         <v>0.1880262803382775</v>
       </c>
       <c r="AI38">
+        <v>0.5402629337059948</v>
+      </c>
+      <c r="AJ38">
         <v>1985</v>
       </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
       <c r="AK38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38">
         <v>1</v>
       </c>
       <c r="AM38">
+        <v>1</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
         <v>661155</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:41">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5328,24 +5562,30 @@
         <v>0.1880262803382775</v>
       </c>
       <c r="AI39">
+        <v>0.5402629337059948</v>
+      </c>
+      <c r="AJ39">
         <v>1985</v>
       </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
       <c r="AK39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39">
         <v>1</v>
       </c>
       <c r="AM39">
+        <v>1</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
         <v>760607</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:41">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5444,24 +5684,30 @@
         <v>0.1880262803382775</v>
       </c>
       <c r="AI40">
+        <v>0.5402629337059948</v>
+      </c>
+      <c r="AJ40">
         <v>1985</v>
       </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
       <c r="AK40">
         <v>0</v>
       </c>
       <c r="AL40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40">
+        <v>1</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
         <v>740195</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:41">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5560,24 +5806,30 @@
         <v>0.1880262803382775</v>
       </c>
       <c r="AI41">
+        <v>0.5402629337059948</v>
+      </c>
+      <c r="AJ41">
         <v>1985</v>
       </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
       <c r="AK41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL41">
         <v>1</v>
       </c>
       <c r="AM41">
+        <v>1</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
         <v>5766559</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:41">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5676,24 +5928,30 @@
         <v>0.1880262803382775</v>
       </c>
       <c r="AI42">
+        <v>0.5402629337059948</v>
+      </c>
+      <c r="AJ42">
         <v>1985</v>
       </c>
-      <c r="AJ42">
-        <v>0</v>
-      </c>
       <c r="AK42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL42">
         <v>1</v>
       </c>
       <c r="AM42">
+        <v>1</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42">
         <v>6559745</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:41">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5792,24 +6050,30 @@
         <v>0.1880262803382775</v>
       </c>
       <c r="AI43">
+        <v>0.5402629337059948</v>
+      </c>
+      <c r="AJ43">
         <v>1985</v>
       </c>
-      <c r="AJ43">
-        <v>0</v>
-      </c>
       <c r="AK43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL43">
         <v>1</v>
       </c>
       <c r="AM43">
+        <v>1</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
         <v>6973525</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:41">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5908,24 +6172,30 @@
         <v>0.1880262803382775</v>
       </c>
       <c r="AI44">
+        <v>0.5402629337059948</v>
+      </c>
+      <c r="AJ44">
         <v>1985</v>
       </c>
-      <c r="AJ44">
-        <v>0</v>
-      </c>
       <c r="AK44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL44">
         <v>1</v>
       </c>
       <c r="AM44">
+        <v>1</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44">
         <v>7514787</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:41">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -6024,24 +6294,30 @@
         <v>0.1880262803382775</v>
       </c>
       <c r="AI45">
+        <v>0.5402629337059948</v>
+      </c>
+      <c r="AJ45">
         <v>1985</v>
       </c>
-      <c r="AJ45">
-        <v>0</v>
-      </c>
       <c r="AK45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL45">
         <v>1</v>
       </c>
       <c r="AM45">
+        <v>1</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
+      <c r="AO45">
         <v>2378514</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:41">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -6140,24 +6416,30 @@
         <v>0.1880262803382775</v>
       </c>
       <c r="AI46">
+        <v>0.5402629337059948</v>
+      </c>
+      <c r="AJ46">
         <v>1985</v>
       </c>
-      <c r="AJ46">
-        <v>0</v>
-      </c>
       <c r="AK46">
         <v>0</v>
       </c>
       <c r="AL46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46">
+        <v>1</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
         <v>2378514</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:41">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -6256,24 +6538,30 @@
         <v>0.1807635591481638</v>
       </c>
       <c r="AI47">
+        <v>0.6612937852135403</v>
+      </c>
+      <c r="AJ47">
         <v>1985</v>
       </c>
-      <c r="AJ47">
-        <v>0</v>
-      </c>
       <c r="AK47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL47">
         <v>1</v>
       </c>
       <c r="AM47">
+        <v>1</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
         <v>161159.5</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:41">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -6372,24 +6660,30 @@
         <v>0.1807635591481638</v>
       </c>
       <c r="AI48">
+        <v>0.6612937852135403</v>
+      </c>
+      <c r="AJ48">
         <v>1985</v>
       </c>
-      <c r="AJ48">
-        <v>0</v>
-      </c>
       <c r="AK48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL48">
         <v>1</v>
       </c>
       <c r="AM48">
+        <v>1</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
         <v>871398</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:41">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6488,24 +6782,30 @@
         <v>0.1807635591481638</v>
       </c>
       <c r="AI49">
+        <v>0.6612937852135403</v>
+      </c>
+      <c r="AJ49">
         <v>1985</v>
       </c>
-      <c r="AJ49">
-        <v>0</v>
-      </c>
       <c r="AK49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL49">
         <v>1</v>
       </c>
       <c r="AM49">
+        <v>1</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
         <v>974220.5</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:41">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6604,24 +6904,30 @@
         <v>0.1807635591481638</v>
       </c>
       <c r="AI50">
+        <v>0.6612937852135403</v>
+      </c>
+      <c r="AJ50">
         <v>1985</v>
       </c>
-      <c r="AJ50">
-        <v>0</v>
-      </c>
       <c r="AK50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL50">
         <v>1</v>
       </c>
       <c r="AM50">
+        <v>1</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50">
         <v>801820.5</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:41">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6720,24 +7026,30 @@
         <v>0.1807635591481638</v>
       </c>
       <c r="AI51">
+        <v>0.6612937852135403</v>
+      </c>
+      <c r="AJ51">
         <v>1985</v>
       </c>
-      <c r="AJ51">
-        <v>0</v>
-      </c>
       <c r="AK51">
         <v>0</v>
       </c>
       <c r="AL51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM51">
+        <v>1</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
         <v>1242592.5</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:41">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6836,24 +7148,30 @@
         <v>0.1807635591481638</v>
       </c>
       <c r="AI52">
+        <v>0.6612937852135403</v>
+      </c>
+      <c r="AJ52">
         <v>1985</v>
       </c>
-      <c r="AJ52">
-        <v>0</v>
-      </c>
       <c r="AK52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL52">
         <v>1</v>
       </c>
       <c r="AM52">
+        <v>1</v>
+      </c>
+      <c r="AN52">
+        <v>1</v>
+      </c>
+      <c r="AO52">
         <v>340627.5</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:41">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6952,24 +7270,30 @@
         <v>0.1807635591481638</v>
       </c>
       <c r="AI53">
+        <v>0.6612937852135403</v>
+      </c>
+      <c r="AJ53">
         <v>1985</v>
       </c>
-      <c r="AJ53">
-        <v>0</v>
-      </c>
       <c r="AK53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL53">
         <v>1</v>
       </c>
       <c r="AM53">
+        <v>1</v>
+      </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
+      <c r="AO53">
         <v>1175648</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:41">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -7068,24 +7392,30 @@
         <v>0.1807635591481638</v>
       </c>
       <c r="AI54">
+        <v>0.6612937852135403</v>
+      </c>
+      <c r="AJ54">
         <v>1985</v>
       </c>
-      <c r="AJ54">
-        <v>0</v>
-      </c>
       <c r="AK54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL54">
         <v>1</v>
       </c>
       <c r="AM54">
+        <v>1</v>
+      </c>
+      <c r="AN54">
+        <v>1</v>
+      </c>
+      <c r="AO54">
         <v>251041.5</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:41">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -7184,24 +7514,30 @@
         <v>0.1807635591481638</v>
       </c>
       <c r="AI55">
+        <v>0.6612937852135403</v>
+      </c>
+      <c r="AJ55">
         <v>1985</v>
       </c>
-      <c r="AJ55">
-        <v>0</v>
-      </c>
       <c r="AK55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL55">
         <v>1</v>
       </c>
       <c r="AM55">
+        <v>1</v>
+      </c>
+      <c r="AN55">
+        <v>1</v>
+      </c>
+      <c r="AO55">
         <v>251041.5</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:41">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -7300,24 +7636,30 @@
         <v>0.1807635591481638</v>
       </c>
       <c r="AI56">
+        <v>0.6612937852135403</v>
+      </c>
+      <c r="AJ56">
         <v>1985</v>
       </c>
-      <c r="AJ56">
-        <v>0</v>
-      </c>
       <c r="AK56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL56">
         <v>1</v>
       </c>
       <c r="AM56">
+        <v>1</v>
+      </c>
+      <c r="AN56">
+        <v>1</v>
+      </c>
+      <c r="AO56">
         <v>962403.5</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:41">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -7416,24 +7758,30 @@
         <v>0.1807635591481638</v>
       </c>
       <c r="AI57">
+        <v>0.6612937852135403</v>
+      </c>
+      <c r="AJ57">
         <v>1985</v>
       </c>
-      <c r="AJ57">
-        <v>0</v>
-      </c>
       <c r="AK57">
         <v>0</v>
       </c>
       <c r="AL57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM57">
+        <v>1</v>
+      </c>
+      <c r="AN57">
+        <v>1</v>
+      </c>
+      <c r="AO57">
         <v>914062.5</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:41">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -7532,24 +7880,30 @@
         <v>0.1807635591481638</v>
       </c>
       <c r="AI58">
+        <v>0.6612937852135403</v>
+      </c>
+      <c r="AJ58">
         <v>1985</v>
       </c>
-      <c r="AJ58">
-        <v>0</v>
-      </c>
       <c r="AK58">
         <v>0</v>
       </c>
       <c r="AL58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM58">
+        <v>1</v>
+      </c>
+      <c r="AN58">
+        <v>1</v>
+      </c>
+      <c r="AO58">
         <v>1041401</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:41">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7648,24 +8002,30 @@
         <v>0.1807635591481638</v>
       </c>
       <c r="AI59">
+        <v>0.6612937852135403</v>
+      </c>
+      <c r="AJ59">
         <v>1985</v>
       </c>
-      <c r="AJ59">
-        <v>0</v>
-      </c>
       <c r="AK59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL59">
         <v>1</v>
       </c>
       <c r="AM59">
+        <v>1</v>
+      </c>
+      <c r="AN59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
         <v>696500</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:41">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7764,24 +8124,30 @@
         <v>0.1807635591481638</v>
       </c>
       <c r="AI60">
+        <v>0.6612937852135403</v>
+      </c>
+      <c r="AJ60">
         <v>1985</v>
       </c>
-      <c r="AJ60">
-        <v>0</v>
-      </c>
       <c r="AK60">
         <v>0</v>
       </c>
       <c r="AL60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM60">
+        <v>1</v>
+      </c>
+      <c r="AN60">
+        <v>1</v>
+      </c>
+      <c r="AO60">
         <v>616150.5</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:41">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7880,24 +8246,30 @@
         <v>0.2730336707197025</v>
       </c>
       <c r="AI61">
+        <v>0.5982622514980658</v>
+      </c>
+      <c r="AJ61">
         <v>1985</v>
       </c>
-      <c r="AJ61">
-        <v>0</v>
-      </c>
       <c r="AK61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL61">
         <v>1</v>
       </c>
       <c r="AM61">
+        <v>1</v>
+      </c>
+      <c r="AN61">
+        <v>1</v>
+      </c>
+      <c r="AO61">
         <v>161159.5</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:41">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -7996,24 +8368,30 @@
         <v>0.2730336707197025</v>
       </c>
       <c r="AI62">
+        <v>0.5982622514980658</v>
+      </c>
+      <c r="AJ62">
         <v>1985</v>
       </c>
-      <c r="AJ62">
-        <v>0</v>
-      </c>
       <c r="AK62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL62">
         <v>1</v>
       </c>
       <c r="AM62">
+        <v>1</v>
+      </c>
+      <c r="AN62">
+        <v>1</v>
+      </c>
+      <c r="AO62">
         <v>871398</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:41">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -8112,24 +8490,30 @@
         <v>0.2730336707197025</v>
       </c>
       <c r="AI63">
+        <v>0.5982622514980658</v>
+      </c>
+      <c r="AJ63">
         <v>1985</v>
       </c>
-      <c r="AJ63">
-        <v>0</v>
-      </c>
       <c r="AK63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL63">
         <v>1</v>
       </c>
       <c r="AM63">
+        <v>1</v>
+      </c>
+      <c r="AN63">
+        <v>1</v>
+      </c>
+      <c r="AO63">
         <v>974220.5</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:41">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -8228,24 +8612,30 @@
         <v>0.2730336707197025</v>
       </c>
       <c r="AI64">
+        <v>0.5982622514980658</v>
+      </c>
+      <c r="AJ64">
         <v>1985</v>
       </c>
-      <c r="AJ64">
-        <v>0</v>
-      </c>
       <c r="AK64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL64">
         <v>1</v>
       </c>
       <c r="AM64">
+        <v>1</v>
+      </c>
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
         <v>801820.5</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:41">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -8344,24 +8734,30 @@
         <v>0.2730336707197025</v>
       </c>
       <c r="AI65">
+        <v>0.5982622514980658</v>
+      </c>
+      <c r="AJ65">
         <v>1985</v>
       </c>
-      <c r="AJ65">
-        <v>0</v>
-      </c>
       <c r="AK65">
         <v>0</v>
       </c>
       <c r="AL65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM65">
+        <v>1</v>
+      </c>
+      <c r="AN65">
+        <v>1</v>
+      </c>
+      <c r="AO65">
         <v>1242592.5</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:41">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -8460,24 +8856,30 @@
         <v>0.2730336707197025</v>
       </c>
       <c r="AI66">
+        <v>0.5982622514980658</v>
+      </c>
+      <c r="AJ66">
         <v>1985</v>
       </c>
-      <c r="AJ66">
-        <v>0</v>
-      </c>
       <c r="AK66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL66">
         <v>1</v>
       </c>
       <c r="AM66">
+        <v>1</v>
+      </c>
+      <c r="AN66">
+        <v>1</v>
+      </c>
+      <c r="AO66">
         <v>340627.5</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:41">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -8576,24 +8978,30 @@
         <v>0.2730336707197025</v>
       </c>
       <c r="AI67">
+        <v>0.5982622514980658</v>
+      </c>
+      <c r="AJ67">
         <v>1985</v>
       </c>
-      <c r="AJ67">
-        <v>0</v>
-      </c>
       <c r="AK67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL67">
         <v>1</v>
       </c>
       <c r="AM67">
+        <v>1</v>
+      </c>
+      <c r="AN67">
+        <v>1</v>
+      </c>
+      <c r="AO67">
         <v>1175648</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:41">
       <c r="A68" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -8692,24 +9100,30 @@
         <v>0.2730336707197025</v>
       </c>
       <c r="AI68">
+        <v>0.5982622514980658</v>
+      </c>
+      <c r="AJ68">
         <v>1985</v>
       </c>
-      <c r="AJ68">
-        <v>0</v>
-      </c>
       <c r="AK68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL68">
         <v>1</v>
       </c>
       <c r="AM68">
+        <v>1</v>
+      </c>
+      <c r="AN68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
         <v>251041.5</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:41">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -8808,24 +9222,30 @@
         <v>0.2730336707197025</v>
       </c>
       <c r="AI69">
+        <v>0.5982622514980658</v>
+      </c>
+      <c r="AJ69">
         <v>1985</v>
       </c>
-      <c r="AJ69">
-        <v>0</v>
-      </c>
       <c r="AK69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL69">
         <v>1</v>
       </c>
       <c r="AM69">
+        <v>1</v>
+      </c>
+      <c r="AN69">
+        <v>1</v>
+      </c>
+      <c r="AO69">
         <v>251041.5</v>
       </c>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:41">
       <c r="A70" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -8924,24 +9344,30 @@
         <v>0.2730336707197025</v>
       </c>
       <c r="AI70">
+        <v>0.5982622514980658</v>
+      </c>
+      <c r="AJ70">
         <v>1985</v>
       </c>
-      <c r="AJ70">
-        <v>0</v>
-      </c>
       <c r="AK70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL70">
         <v>1</v>
       </c>
       <c r="AM70">
+        <v>1</v>
+      </c>
+      <c r="AN70">
+        <v>1</v>
+      </c>
+      <c r="AO70">
         <v>962403.5</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:41">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -9040,24 +9466,30 @@
         <v>0.2730336707197025</v>
       </c>
       <c r="AI71">
+        <v>0.5982622514980658</v>
+      </c>
+      <c r="AJ71">
         <v>1985</v>
       </c>
-      <c r="AJ71">
-        <v>0</v>
-      </c>
       <c r="AK71">
         <v>0</v>
       </c>
       <c r="AL71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM71">
+        <v>1</v>
+      </c>
+      <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
         <v>914062.5</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:41">
       <c r="A72" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -9156,24 +9588,30 @@
         <v>0.2730336707197025</v>
       </c>
       <c r="AI72">
+        <v>0.5982622514980658</v>
+      </c>
+      <c r="AJ72">
         <v>1985</v>
       </c>
-      <c r="AJ72">
-        <v>0</v>
-      </c>
       <c r="AK72">
         <v>0</v>
       </c>
       <c r="AL72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM72">
+        <v>1</v>
+      </c>
+      <c r="AN72">
+        <v>1</v>
+      </c>
+      <c r="AO72">
         <v>1041401</v>
       </c>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:41">
       <c r="A73" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -9272,24 +9710,30 @@
         <v>0.2730336707197025</v>
       </c>
       <c r="AI73">
+        <v>0.5982622514980658</v>
+      </c>
+      <c r="AJ73">
         <v>1985</v>
       </c>
-      <c r="AJ73">
-        <v>0</v>
-      </c>
       <c r="AK73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL73">
         <v>1</v>
       </c>
       <c r="AM73">
+        <v>1</v>
+      </c>
+      <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
         <v>696500</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:41">
       <c r="A74" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -9388,24 +9832,30 @@
         <v>0.2730336707197025</v>
       </c>
       <c r="AI74">
+        <v>0.5982622514980658</v>
+      </c>
+      <c r="AJ74">
         <v>1985</v>
       </c>
-      <c r="AJ74">
-        <v>0</v>
-      </c>
       <c r="AK74">
         <v>0</v>
       </c>
       <c r="AL74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM74">
+        <v>1</v>
+      </c>
+      <c r="AN74">
+        <v>1</v>
+      </c>
+      <c r="AO74">
         <v>616150.5</v>
       </c>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:41">
       <c r="A75" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -9444,7 +9894,7 @@
         <v>0</v>
       </c>
       <c r="N75">
-        <v>6286715.289999999</v>
+        <v>6286715.29</v>
       </c>
       <c r="O75">
         <v>167199.63</v>
@@ -9462,7 +9912,7 @@
         <v>0</v>
       </c>
       <c r="T75">
-        <v>807611.1899999999</v>
+        <v>814945.38</v>
       </c>
       <c r="U75">
         <v>38</v>
@@ -9498,30 +9948,36 @@
         <v>0</v>
       </c>
       <c r="AG75">
-        <v>7094326.479999999</v>
+        <v>7101660.67</v>
       </c>
       <c r="AH75">
-        <v>0.113839022249227</v>
+        <v>0.1147541987527827</v>
       </c>
       <c r="AI75">
+        <v>0.7498198023589883</v>
+      </c>
+      <c r="AJ75">
         <v>1985</v>
       </c>
-      <c r="AJ75">
-        <v>0</v>
-      </c>
       <c r="AK75">
         <v>0</v>
       </c>
       <c r="AL75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM75">
+        <v>1</v>
+      </c>
+      <c r="AN75">
+        <v>1</v>
+      </c>
+      <c r="AO75">
         <v>147231.38</v>
       </c>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:41">
       <c r="A76" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -9560,7 +10016,7 @@
         <v>0</v>
       </c>
       <c r="N76">
-        <v>6286715.289999999</v>
+        <v>6286715.29</v>
       </c>
       <c r="O76">
         <v>167199.63</v>
@@ -9578,7 +10034,7 @@
         <v>0</v>
       </c>
       <c r="T76">
-        <v>807611.1899999999</v>
+        <v>814945.38</v>
       </c>
       <c r="U76">
         <v>38</v>
@@ -9614,30 +10070,36 @@
         <v>10602689</v>
       </c>
       <c r="AG76">
-        <v>7094326.479999999</v>
+        <v>7101660.67</v>
       </c>
       <c r="AH76">
-        <v>0.113839022249227</v>
+        <v>0.1147541987527827</v>
       </c>
       <c r="AI76">
+        <v>0.7498198023589883</v>
+      </c>
+      <c r="AJ76">
         <v>1985</v>
       </c>
-      <c r="AJ76">
-        <v>0</v>
-      </c>
       <c r="AK76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL76">
         <v>1</v>
       </c>
       <c r="AM76">
+        <v>1</v>
+      </c>
+      <c r="AN76">
+        <v>1</v>
+      </c>
+      <c r="AO76">
         <v>81718</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:41">
       <c r="A77" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -9676,7 +10138,7 @@
         <v>0</v>
       </c>
       <c r="N77">
-        <v>6286715.289999999</v>
+        <v>6286715.29</v>
       </c>
       <c r="O77">
         <v>167199.63</v>
@@ -9694,7 +10156,7 @@
         <v>0</v>
       </c>
       <c r="T77">
-        <v>807611.1899999999</v>
+        <v>814945.38</v>
       </c>
       <c r="U77">
         <v>38</v>
@@ -9730,30 +10192,36 @@
         <v>10535466</v>
       </c>
       <c r="AG77">
-        <v>7094326.479999999</v>
+        <v>7101660.67</v>
       </c>
       <c r="AH77">
-        <v>0.113839022249227</v>
+        <v>0.1147541987527827</v>
       </c>
       <c r="AI77">
+        <v>0.7498198023589883</v>
+      </c>
+      <c r="AJ77">
         <v>1985</v>
       </c>
-      <c r="AJ77">
-        <v>0</v>
-      </c>
       <c r="AK77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL77">
         <v>1</v>
       </c>
       <c r="AM77">
+        <v>1</v>
+      </c>
+      <c r="AN77">
+        <v>1</v>
+      </c>
+      <c r="AO77">
         <v>149416.5</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:41">
       <c r="A78" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -9792,7 +10260,7 @@
         <v>0</v>
       </c>
       <c r="N78">
-        <v>6286715.289999999</v>
+        <v>6286715.29</v>
       </c>
       <c r="O78">
         <v>167199.63</v>
@@ -9810,7 +10278,7 @@
         <v>0</v>
       </c>
       <c r="T78">
-        <v>807611.1899999999</v>
+        <v>814945.38</v>
       </c>
       <c r="U78">
         <v>38</v>
@@ -9846,30 +10314,36 @@
         <v>6011154</v>
       </c>
       <c r="AG78">
-        <v>7094326.479999999</v>
+        <v>7101660.67</v>
       </c>
       <c r="AH78">
-        <v>0.113839022249227</v>
+        <v>0.1147541987527827</v>
       </c>
       <c r="AI78">
+        <v>0.7498198023589883</v>
+      </c>
+      <c r="AJ78">
         <v>1985</v>
       </c>
-      <c r="AJ78">
-        <v>0</v>
-      </c>
       <c r="AK78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL78">
         <v>1</v>
       </c>
       <c r="AM78">
+        <v>1</v>
+      </c>
+      <c r="AN78">
+        <v>1</v>
+      </c>
+      <c r="AO78">
         <v>1818097.5</v>
       </c>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:41">
       <c r="A79" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -9908,7 +10382,7 @@
         <v>0</v>
       </c>
       <c r="N79">
-        <v>6286715.289999999</v>
+        <v>6286715.29</v>
       </c>
       <c r="O79">
         <v>167199.63</v>
@@ -9926,7 +10400,7 @@
         <v>0</v>
       </c>
       <c r="T79">
-        <v>807611.1899999999</v>
+        <v>814945.38</v>
       </c>
       <c r="U79">
         <v>38</v>
@@ -9962,30 +10436,36 @@
         <v>11105000</v>
       </c>
       <c r="AG79">
-        <v>7094326.479999999</v>
+        <v>7101660.67</v>
       </c>
       <c r="AH79">
-        <v>0.113839022249227</v>
+        <v>0.1147541987527827</v>
       </c>
       <c r="AI79">
+        <v>0.7498198023589883</v>
+      </c>
+      <c r="AJ79">
         <v>1985</v>
       </c>
-      <c r="AJ79">
-        <v>0</v>
-      </c>
       <c r="AK79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL79">
         <v>1</v>
       </c>
       <c r="AM79">
+        <v>0</v>
+      </c>
+      <c r="AN79">
+        <v>1</v>
+      </c>
+      <c r="AO79">
         <v>17288.5</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:41">
       <c r="A80" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -10024,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="N80">
-        <v>6286715.289999999</v>
+        <v>6286715.29</v>
       </c>
       <c r="O80">
         <v>167199.63</v>
@@ -10042,7 +10522,7 @@
         <v>0</v>
       </c>
       <c r="T80">
-        <v>807611.1899999999</v>
+        <v>814945.38</v>
       </c>
       <c r="U80">
         <v>38</v>
@@ -10078,30 +10558,36 @@
         <v>8039920</v>
       </c>
       <c r="AG80">
-        <v>7094326.479999999</v>
+        <v>7101660.67</v>
       </c>
       <c r="AH80">
-        <v>0.113839022249227</v>
+        <v>0.1147541987527827</v>
       </c>
       <c r="AI80">
+        <v>0.7498198023589883</v>
+      </c>
+      <c r="AJ80">
         <v>1985</v>
       </c>
-      <c r="AJ80">
-        <v>0</v>
-      </c>
       <c r="AK80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL80">
         <v>1</v>
       </c>
       <c r="AM80">
+        <v>1</v>
+      </c>
+      <c r="AN80">
+        <v>1</v>
+      </c>
+      <c r="AO80">
         <v>41750.46</v>
       </c>
     </row>
-    <row r="81" spans="1:39">
+    <row r="81" spans="1:41">
       <c r="A81" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -10140,7 +10626,7 @@
         <v>0</v>
       </c>
       <c r="N81">
-        <v>6286715.289999999</v>
+        <v>6286715.29</v>
       </c>
       <c r="O81">
         <v>167199.63</v>
@@ -10158,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="T81">
-        <v>807611.1899999999</v>
+        <v>814945.38</v>
       </c>
       <c r="U81">
         <v>38</v>
@@ -10194,30 +10680,36 @@
         <v>6909225</v>
       </c>
       <c r="AG81">
-        <v>7094326.479999999</v>
+        <v>7101660.67</v>
       </c>
       <c r="AH81">
-        <v>0.113839022249227</v>
+        <v>0.1147541987527827</v>
       </c>
       <c r="AI81">
+        <v>0.7498198023589883</v>
+      </c>
+      <c r="AJ81">
         <v>1985</v>
       </c>
-      <c r="AJ81">
-        <v>0</v>
-      </c>
       <c r="AK81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL81">
         <v>1</v>
       </c>
       <c r="AM81">
+        <v>1</v>
+      </c>
+      <c r="AN81">
+        <v>1</v>
+      </c>
+      <c r="AO81">
         <v>228774</v>
       </c>
     </row>
-    <row r="82" spans="1:39">
+    <row r="82" spans="1:41">
       <c r="A82" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -10256,7 +10748,7 @@
         <v>0</v>
       </c>
       <c r="N82">
-        <v>6286715.289999999</v>
+        <v>6286715.29</v>
       </c>
       <c r="O82">
         <v>167199.63</v>
@@ -10274,7 +10766,7 @@
         <v>0</v>
       </c>
       <c r="T82">
-        <v>807611.1899999999</v>
+        <v>814945.38</v>
       </c>
       <c r="U82">
         <v>38</v>
@@ -10310,30 +10802,36 @@
         <v>8125000</v>
       </c>
       <c r="AG82">
-        <v>7094326.479999999</v>
+        <v>7101660.67</v>
       </c>
       <c r="AH82">
-        <v>0.113839022249227</v>
+        <v>0.1147541987527827</v>
       </c>
       <c r="AI82">
+        <v>0.7498198023589883</v>
+      </c>
+      <c r="AJ82">
         <v>1985</v>
       </c>
-      <c r="AJ82">
-        <v>0</v>
-      </c>
       <c r="AK82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL82">
         <v>1</v>
       </c>
       <c r="AM82">
+        <v>0</v>
+      </c>
+      <c r="AN82">
+        <v>1</v>
+      </c>
+      <c r="AO82">
         <v>2721</v>
       </c>
     </row>
-    <row r="83" spans="1:39">
+    <row r="83" spans="1:41">
       <c r="A83" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -10372,7 +10870,7 @@
         <v>0</v>
       </c>
       <c r="N83">
-        <v>6286715.289999999</v>
+        <v>6286715.29</v>
       </c>
       <c r="O83">
         <v>167199.63</v>
@@ -10390,7 +10888,7 @@
         <v>0</v>
       </c>
       <c r="T83">
-        <v>807611.1899999999</v>
+        <v>814945.38</v>
       </c>
       <c r="U83">
         <v>38</v>
@@ -10426,30 +10924,36 @@
         <v>5872715</v>
       </c>
       <c r="AG83">
-        <v>7094326.479999999</v>
+        <v>7101660.67</v>
       </c>
       <c r="AH83">
-        <v>0.113839022249227</v>
+        <v>0.1147541987527827</v>
       </c>
       <c r="AI83">
+        <v>0.7498198023589883</v>
+      </c>
+      <c r="AJ83">
         <v>1985</v>
       </c>
-      <c r="AJ83">
-        <v>0</v>
-      </c>
       <c r="AK83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL83">
         <v>1</v>
       </c>
       <c r="AM83">
+        <v>1</v>
+      </c>
+      <c r="AN83">
+        <v>1</v>
+      </c>
+      <c r="AO83">
         <v>206109.53</v>
       </c>
     </row>
-    <row r="84" spans="1:39">
+    <row r="84" spans="1:41">
       <c r="A84" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -10488,7 +10992,7 @@
         <v>0</v>
       </c>
       <c r="N84">
-        <v>6286715.289999999</v>
+        <v>6286715.29</v>
       </c>
       <c r="O84">
         <v>167199.63</v>
@@ -10506,7 +11010,7 @@
         <v>0</v>
       </c>
       <c r="T84">
-        <v>807611.1899999999</v>
+        <v>814945.38</v>
       </c>
       <c r="U84">
         <v>38</v>
@@ -10542,30 +11046,36 @@
         <v>8243214</v>
       </c>
       <c r="AG84">
-        <v>7094326.479999999</v>
+        <v>7101660.67</v>
       </c>
       <c r="AH84">
-        <v>0.113839022249227</v>
+        <v>0.1147541987527827</v>
       </c>
       <c r="AI84">
+        <v>0.7498198023589883</v>
+      </c>
+      <c r="AJ84">
         <v>1985</v>
       </c>
-      <c r="AJ84">
-        <v>0</v>
-      </c>
       <c r="AK84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL84">
         <v>1</v>
       </c>
       <c r="AM84">
+        <v>1</v>
+      </c>
+      <c r="AN84">
+        <v>1</v>
+      </c>
+      <c r="AO84">
         <v>136471</v>
       </c>
     </row>
-    <row r="85" spans="1:39">
+    <row r="85" spans="1:41">
       <c r="A85" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -10604,7 +11114,7 @@
         <v>0</v>
       </c>
       <c r="N85">
-        <v>6286715.289999999</v>
+        <v>6286715.29</v>
       </c>
       <c r="O85">
         <v>167199.63</v>
@@ -10622,7 +11132,7 @@
         <v>0</v>
       </c>
       <c r="T85">
-        <v>807611.1899999999</v>
+        <v>814945.38</v>
       </c>
       <c r="U85">
         <v>38</v>
@@ -10658,30 +11168,36 @@
         <v>6615978</v>
       </c>
       <c r="AG85">
-        <v>7094326.479999999</v>
+        <v>7101660.67</v>
       </c>
       <c r="AH85">
-        <v>0.113839022249227</v>
+        <v>0.1147541987527827</v>
       </c>
       <c r="AI85">
+        <v>0.7498198023589883</v>
+      </c>
+      <c r="AJ85">
         <v>1985</v>
       </c>
-      <c r="AJ85">
-        <v>0</v>
-      </c>
       <c r="AK85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL85">
         <v>1</v>
       </c>
       <c r="AM85">
+        <v>1</v>
+      </c>
+      <c r="AN85">
+        <v>1</v>
+      </c>
+      <c r="AO85">
         <v>310801.5</v>
       </c>
     </row>
-    <row r="86" spans="1:39">
+    <row r="86" spans="1:41">
       <c r="A86" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -10720,7 +11236,7 @@
         <v>0</v>
       </c>
       <c r="N86">
-        <v>6286715.289999999</v>
+        <v>6286715.29</v>
       </c>
       <c r="O86">
         <v>167199.63</v>
@@ -10738,7 +11254,7 @@
         <v>0</v>
       </c>
       <c r="T86">
-        <v>807611.1899999999</v>
+        <v>814945.38</v>
       </c>
       <c r="U86">
         <v>38</v>
@@ -10774,30 +11290,36 @@
         <v>0</v>
       </c>
       <c r="AG86">
-        <v>7094326.479999999</v>
+        <v>7101660.67</v>
       </c>
       <c r="AH86">
-        <v>0.113839022249227</v>
+        <v>0.1147541987527827</v>
       </c>
       <c r="AI86">
+        <v>0.7498198023589883</v>
+      </c>
+      <c r="AJ86">
         <v>1985</v>
       </c>
-      <c r="AJ86">
-        <v>0</v>
-      </c>
       <c r="AK86">
         <v>0</v>
       </c>
       <c r="AL86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM86">
+        <v>0</v>
+      </c>
+      <c r="AN86">
+        <v>1</v>
+      </c>
+      <c r="AO86">
         <v>41271.5</v>
       </c>
     </row>
-    <row r="87" spans="1:39">
+    <row r="87" spans="1:41">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -10836,7 +11358,7 @@
         <v>0</v>
       </c>
       <c r="N87">
-        <v>6286715.289999999</v>
+        <v>6286715.29</v>
       </c>
       <c r="O87">
         <v>167199.63</v>
@@ -10854,7 +11376,7 @@
         <v>0</v>
       </c>
       <c r="T87">
-        <v>807611.1899999999</v>
+        <v>814945.38</v>
       </c>
       <c r="U87">
         <v>38</v>
@@ -10890,30 +11412,36 @@
         <v>8167890</v>
       </c>
       <c r="AG87">
-        <v>7094326.479999999</v>
+        <v>7101660.67</v>
       </c>
       <c r="AH87">
-        <v>0.113839022249227</v>
+        <v>0.1147541987527827</v>
       </c>
       <c r="AI87">
+        <v>0.7498198023589883</v>
+      </c>
+      <c r="AJ87">
         <v>1985</v>
       </c>
-      <c r="AJ87">
-        <v>0</v>
-      </c>
       <c r="AK87">
         <v>0</v>
       </c>
       <c r="AL87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM87">
+        <v>1</v>
+      </c>
+      <c r="AN87">
+        <v>1</v>
+      </c>
+      <c r="AO87">
         <v>376066</v>
       </c>
     </row>
-    <row r="88" spans="1:39">
+    <row r="88" spans="1:41">
       <c r="A88" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -10952,7 +11480,7 @@
         <v>0</v>
       </c>
       <c r="N88">
-        <v>6286715.289999999</v>
+        <v>6286715.29</v>
       </c>
       <c r="O88">
         <v>167199.63</v>
@@ -10970,7 +11498,7 @@
         <v>0</v>
       </c>
       <c r="T88">
-        <v>807611.1899999999</v>
+        <v>814945.38</v>
       </c>
       <c r="U88">
         <v>38</v>
@@ -11006,30 +11534,36 @@
         <v>0</v>
       </c>
       <c r="AG88">
-        <v>7094326.479999999</v>
+        <v>7101660.67</v>
       </c>
       <c r="AH88">
-        <v>0.113839022249227</v>
+        <v>0.1147541987527827</v>
       </c>
       <c r="AI88">
+        <v>0.7498198023589883</v>
+      </c>
+      <c r="AJ88">
         <v>1985</v>
       </c>
-      <c r="AJ88">
-        <v>0</v>
-      </c>
       <c r="AK88">
         <v>0</v>
       </c>
       <c r="AL88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM88">
+        <v>0</v>
+      </c>
+      <c r="AN88">
+        <v>1</v>
+      </c>
+      <c r="AO88">
         <v>47500</v>
       </c>
     </row>
-    <row r="89" spans="1:39">
+    <row r="89" spans="1:41">
       <c r="A89" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -11128,24 +11662,30 @@
         <v>0.6456047492298397</v>
       </c>
       <c r="AI89">
+        <v>0.1204403273415595</v>
+      </c>
+      <c r="AJ89">
         <v>1985</v>
       </c>
-      <c r="AJ89">
-        <v>0</v>
-      </c>
       <c r="AK89">
         <v>0</v>
       </c>
       <c r="AL89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM89">
+        <v>1</v>
+      </c>
+      <c r="AN89">
+        <v>1</v>
+      </c>
+      <c r="AO89">
         <v>147231.38</v>
       </c>
     </row>
-    <row r="90" spans="1:39">
+    <row r="90" spans="1:41">
       <c r="A90" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -11244,24 +11784,30 @@
         <v>0.6456047492298397</v>
       </c>
       <c r="AI90">
+        <v>0.1204403273415595</v>
+      </c>
+      <c r="AJ90">
         <v>1985</v>
       </c>
-      <c r="AJ90">
-        <v>0</v>
-      </c>
       <c r="AK90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL90">
         <v>1</v>
       </c>
       <c r="AM90">
+        <v>1</v>
+      </c>
+      <c r="AN90">
+        <v>1</v>
+      </c>
+      <c r="AO90">
         <v>81718</v>
       </c>
     </row>
-    <row r="91" spans="1:39">
+    <row r="91" spans="1:41">
       <c r="A91" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -11360,24 +11906,30 @@
         <v>0.6456047492298397</v>
       </c>
       <c r="AI91">
+        <v>0.1204403273415595</v>
+      </c>
+      <c r="AJ91">
         <v>1985</v>
       </c>
-      <c r="AJ91">
-        <v>0</v>
-      </c>
       <c r="AK91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL91">
         <v>1</v>
       </c>
       <c r="AM91">
+        <v>1</v>
+      </c>
+      <c r="AN91">
+        <v>1</v>
+      </c>
+      <c r="AO91">
         <v>149416.5</v>
       </c>
     </row>
-    <row r="92" spans="1:39">
+    <row r="92" spans="1:41">
       <c r="A92" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -11476,24 +12028,30 @@
         <v>0.6456047492298397</v>
       </c>
       <c r="AI92">
+        <v>0.1204403273415595</v>
+      </c>
+      <c r="AJ92">
         <v>1985</v>
       </c>
-      <c r="AJ92">
-        <v>0</v>
-      </c>
       <c r="AK92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL92">
         <v>1</v>
       </c>
       <c r="AM92">
+        <v>1</v>
+      </c>
+      <c r="AN92">
+        <v>1</v>
+      </c>
+      <c r="AO92">
         <v>1818097.5</v>
       </c>
     </row>
-    <row r="93" spans="1:39">
+    <row r="93" spans="1:41">
       <c r="A93" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -11592,24 +12150,30 @@
         <v>0.6456047492298397</v>
       </c>
       <c r="AI93">
+        <v>0.1204403273415595</v>
+      </c>
+      <c r="AJ93">
         <v>1985</v>
       </c>
-      <c r="AJ93">
-        <v>0</v>
-      </c>
       <c r="AK93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL93">
         <v>1</v>
       </c>
       <c r="AM93">
+        <v>0</v>
+      </c>
+      <c r="AN93">
+        <v>1</v>
+      </c>
+      <c r="AO93">
         <v>17288.5</v>
       </c>
     </row>
-    <row r="94" spans="1:39">
+    <row r="94" spans="1:41">
       <c r="A94" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -11708,24 +12272,30 @@
         <v>0.6456047492298397</v>
       </c>
       <c r="AI94">
+        <v>0.1204403273415595</v>
+      </c>
+      <c r="AJ94">
         <v>1985</v>
       </c>
-      <c r="AJ94">
-        <v>0</v>
-      </c>
       <c r="AK94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL94">
         <v>1</v>
       </c>
       <c r="AM94">
+        <v>1</v>
+      </c>
+      <c r="AN94">
+        <v>1</v>
+      </c>
+      <c r="AO94">
         <v>41750.46</v>
       </c>
     </row>
-    <row r="95" spans="1:39">
+    <row r="95" spans="1:41">
       <c r="A95" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -11824,24 +12394,30 @@
         <v>0.6456047492298397</v>
       </c>
       <c r="AI95">
+        <v>0.1204403273415595</v>
+      </c>
+      <c r="AJ95">
         <v>1985</v>
       </c>
-      <c r="AJ95">
-        <v>0</v>
-      </c>
       <c r="AK95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL95">
         <v>1</v>
       </c>
       <c r="AM95">
+        <v>1</v>
+      </c>
+      <c r="AN95">
+        <v>1</v>
+      </c>
+      <c r="AO95">
         <v>228774</v>
       </c>
     </row>
-    <row r="96" spans="1:39">
+    <row r="96" spans="1:41">
       <c r="A96" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -11940,24 +12516,30 @@
         <v>0.6456047492298397</v>
       </c>
       <c r="AI96">
+        <v>0.1204403273415595</v>
+      </c>
+      <c r="AJ96">
         <v>1985</v>
       </c>
-      <c r="AJ96">
-        <v>0</v>
-      </c>
       <c r="AK96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL96">
         <v>1</v>
       </c>
       <c r="AM96">
+        <v>0</v>
+      </c>
+      <c r="AN96">
+        <v>1</v>
+      </c>
+      <c r="AO96">
         <v>2721</v>
       </c>
     </row>
-    <row r="97" spans="1:39">
+    <row r="97" spans="1:41">
       <c r="A97" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -12056,24 +12638,30 @@
         <v>0.6456047492298397</v>
       </c>
       <c r="AI97">
+        <v>0.1204403273415595</v>
+      </c>
+      <c r="AJ97">
         <v>1985</v>
       </c>
-      <c r="AJ97">
-        <v>0</v>
-      </c>
       <c r="AK97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL97">
         <v>1</v>
       </c>
       <c r="AM97">
+        <v>1</v>
+      </c>
+      <c r="AN97">
+        <v>1</v>
+      </c>
+      <c r="AO97">
         <v>206109.53</v>
       </c>
     </row>
-    <row r="98" spans="1:39">
+    <row r="98" spans="1:41">
       <c r="A98" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -12172,24 +12760,30 @@
         <v>0.6456047492298397</v>
       </c>
       <c r="AI98">
+        <v>0.1204403273415595</v>
+      </c>
+      <c r="AJ98">
         <v>1985</v>
       </c>
-      <c r="AJ98">
-        <v>0</v>
-      </c>
       <c r="AK98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL98">
         <v>1</v>
       </c>
       <c r="AM98">
+        <v>1</v>
+      </c>
+      <c r="AN98">
+        <v>1</v>
+      </c>
+      <c r="AO98">
         <v>136471</v>
       </c>
     </row>
-    <row r="99" spans="1:39">
+    <row r="99" spans="1:41">
       <c r="A99" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -12288,24 +12882,30 @@
         <v>0.6456047492298397</v>
       </c>
       <c r="AI99">
+        <v>0.1204403273415595</v>
+      </c>
+      <c r="AJ99">
         <v>1985</v>
       </c>
-      <c r="AJ99">
-        <v>0</v>
-      </c>
       <c r="AK99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL99">
         <v>1</v>
       </c>
       <c r="AM99">
+        <v>1</v>
+      </c>
+      <c r="AN99">
+        <v>1</v>
+      </c>
+      <c r="AO99">
         <v>310801.5</v>
       </c>
     </row>
-    <row r="100" spans="1:39">
+    <row r="100" spans="1:41">
       <c r="A100" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -12404,24 +13004,30 @@
         <v>0.6456047492298397</v>
       </c>
       <c r="AI100">
+        <v>0.1204403273415595</v>
+      </c>
+      <c r="AJ100">
         <v>1985</v>
       </c>
-      <c r="AJ100">
-        <v>0</v>
-      </c>
       <c r="AK100">
         <v>0</v>
       </c>
       <c r="AL100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM100">
+        <v>0</v>
+      </c>
+      <c r="AN100">
+        <v>1</v>
+      </c>
+      <c r="AO100">
         <v>41271.5</v>
       </c>
     </row>
-    <row r="101" spans="1:39">
+    <row r="101" spans="1:41">
       <c r="A101" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -12520,24 +13126,30 @@
         <v>0.6456047492298397</v>
       </c>
       <c r="AI101">
+        <v>0.1204403273415595</v>
+      </c>
+      <c r="AJ101">
         <v>1985</v>
       </c>
-      <c r="AJ101">
-        <v>0</v>
-      </c>
       <c r="AK101">
         <v>0</v>
       </c>
       <c r="AL101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM101">
+        <v>1</v>
+      </c>
+      <c r="AN101">
+        <v>1</v>
+      </c>
+      <c r="AO101">
         <v>376066</v>
       </c>
     </row>
-    <row r="102" spans="1:39">
+    <row r="102" spans="1:41">
       <c r="A102" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -12636,24 +13248,30 @@
         <v>0.6456047492298397</v>
       </c>
       <c r="AI102">
+        <v>0.1204403273415595</v>
+      </c>
+      <c r="AJ102">
         <v>1985</v>
       </c>
-      <c r="AJ102">
-        <v>0</v>
-      </c>
       <c r="AK102">
         <v>0</v>
       </c>
       <c r="AL102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM102">
+        <v>0</v>
+      </c>
+      <c r="AN102">
+        <v>1</v>
+      </c>
+      <c r="AO102">
         <v>47500</v>
       </c>
     </row>
-    <row r="103" spans="1:39">
+    <row r="103" spans="1:41">
       <c r="A103" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -12752,24 +13370,30 @@
         <v>0.4183638262231078</v>
       </c>
       <c r="AI103">
+        <v>0.07213173563141838</v>
+      </c>
+      <c r="AJ103">
         <v>1985</v>
       </c>
-      <c r="AJ103">
-        <v>0</v>
-      </c>
       <c r="AK103">
         <v>0</v>
       </c>
       <c r="AL103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM103">
+        <v>1</v>
+      </c>
+      <c r="AN103">
+        <v>1</v>
+      </c>
+      <c r="AO103">
         <v>355195</v>
       </c>
     </row>
-    <row r="104" spans="1:39">
+    <row r="104" spans="1:41">
       <c r="A104" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -12868,24 +13492,30 @@
         <v>0.4183638262231078</v>
       </c>
       <c r="AI104">
+        <v>0.07213173563141838</v>
+      </c>
+      <c r="AJ104">
         <v>1985</v>
       </c>
-      <c r="AJ104">
-        <v>0</v>
-      </c>
       <c r="AK104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL104">
         <v>1</v>
       </c>
       <c r="AM104">
+        <v>1</v>
+      </c>
+      <c r="AN104">
+        <v>1</v>
+      </c>
+      <c r="AO104">
         <v>177597</v>
       </c>
     </row>
-    <row r="105" spans="1:39">
+    <row r="105" spans="1:41">
       <c r="A105" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -12984,24 +13614,30 @@
         <v>0.4183638262231078</v>
       </c>
       <c r="AI105">
+        <v>0.07213173563141838</v>
+      </c>
+      <c r="AJ105">
         <v>1985</v>
       </c>
-      <c r="AJ105">
-        <v>0</v>
-      </c>
       <c r="AK105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL105">
         <v>1</v>
       </c>
       <c r="AM105">
+        <v>1</v>
+      </c>
+      <c r="AN105">
+        <v>1</v>
+      </c>
+      <c r="AO105">
         <v>155195</v>
       </c>
     </row>
-    <row r="106" spans="1:39">
+    <row r="106" spans="1:41">
       <c r="A106" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -13100,24 +13736,30 @@
         <v>0.4183638262231078</v>
       </c>
       <c r="AI106">
+        <v>0.07213173563141838</v>
+      </c>
+      <c r="AJ106">
         <v>1985</v>
       </c>
-      <c r="AJ106">
-        <v>0</v>
-      </c>
       <c r="AK106">
         <v>0</v>
       </c>
       <c r="AL106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM106">
+        <v>1</v>
+      </c>
+      <c r="AN106">
+        <v>1</v>
+      </c>
+      <c r="AO106">
         <v>232793</v>
       </c>
     </row>
-    <row r="107" spans="1:39">
+    <row r="107" spans="1:41">
       <c r="A107" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -13216,24 +13858,30 @@
         <v>0.4183638262231078</v>
       </c>
       <c r="AI107">
+        <v>0.07213173563141838</v>
+      </c>
+      <c r="AJ107">
         <v>1985</v>
       </c>
-      <c r="AJ107">
-        <v>0</v>
-      </c>
       <c r="AK107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL107">
         <v>1</v>
       </c>
       <c r="AM107">
+        <v>1</v>
+      </c>
+      <c r="AN107">
+        <v>1</v>
+      </c>
+      <c r="AO107">
         <v>976787</v>
       </c>
     </row>
-    <row r="108" spans="1:39">
+    <row r="108" spans="1:41">
       <c r="A108" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -13332,24 +13980,30 @@
         <v>0.4183638262231078</v>
       </c>
       <c r="AI108">
+        <v>0.07213173563141838</v>
+      </c>
+      <c r="AJ108">
         <v>1985</v>
       </c>
-      <c r="AJ108">
-        <v>0</v>
-      </c>
       <c r="AK108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL108">
         <v>1</v>
       </c>
       <c r="AM108">
+        <v>1</v>
+      </c>
+      <c r="AN108">
+        <v>1</v>
+      </c>
+      <c r="AO108">
         <v>177597</v>
       </c>
     </row>
-    <row r="109" spans="1:39">
+    <row r="109" spans="1:41">
       <c r="A109" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -13448,24 +14102,30 @@
         <v>0.4183638262231078</v>
       </c>
       <c r="AI109">
+        <v>0.07213173563141838</v>
+      </c>
+      <c r="AJ109">
         <v>1985</v>
       </c>
-      <c r="AJ109">
-        <v>0</v>
-      </c>
       <c r="AK109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL109">
         <v>1</v>
       </c>
       <c r="AM109">
+        <v>1</v>
+      </c>
+      <c r="AN109">
+        <v>1</v>
+      </c>
+      <c r="AO109">
         <v>266396</v>
       </c>
     </row>
-    <row r="110" spans="1:39">
+    <row r="110" spans="1:41">
       <c r="A110" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -13564,24 +14224,30 @@
         <v>0.4183638262231078</v>
       </c>
       <c r="AI110">
+        <v>0.07213173563141838</v>
+      </c>
+      <c r="AJ110">
         <v>1985</v>
       </c>
-      <c r="AJ110">
-        <v>0</v>
-      </c>
       <c r="AK110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL110">
         <v>1</v>
       </c>
       <c r="AM110">
+        <v>1</v>
+      </c>
+      <c r="AN110">
+        <v>1</v>
+      </c>
+      <c r="AO110">
         <v>788805</v>
       </c>
     </row>
-    <row r="111" spans="1:39">
+    <row r="111" spans="1:41">
       <c r="A111" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -13680,24 +14346,30 @@
         <v>0.4183638262231078</v>
       </c>
       <c r="AI111">
+        <v>0.07213173563141838</v>
+      </c>
+      <c r="AJ111">
         <v>1985</v>
       </c>
-      <c r="AJ111">
-        <v>0</v>
-      </c>
       <c r="AK111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL111">
         <v>1</v>
       </c>
       <c r="AM111">
+        <v>1</v>
+      </c>
+      <c r="AN111">
+        <v>1</v>
+      </c>
+      <c r="AO111">
         <v>88798</v>
       </c>
     </row>
-    <row r="112" spans="1:39">
+    <row r="112" spans="1:41">
       <c r="A112" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -13796,24 +14468,30 @@
         <v>0.4183638262231078</v>
       </c>
       <c r="AI112">
+        <v>0.07213173563141838</v>
+      </c>
+      <c r="AJ112">
         <v>1985</v>
       </c>
-      <c r="AJ112">
-        <v>0</v>
-      </c>
       <c r="AK112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL112">
         <v>1</v>
       </c>
       <c r="AM112">
+        <v>1</v>
+      </c>
+      <c r="AN112">
+        <v>1</v>
+      </c>
+      <c r="AO112">
         <v>799190</v>
       </c>
     </row>
-    <row r="113" spans="1:39">
+    <row r="113" spans="1:41">
       <c r="A113" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -13912,18 +14590,24 @@
         <v>0.4183638262231078</v>
       </c>
       <c r="AI113">
+        <v>0.07213173563141838</v>
+      </c>
+      <c r="AJ113">
         <v>1985</v>
       </c>
-      <c r="AJ113">
-        <v>0</v>
-      </c>
       <c r="AK113">
         <v>0</v>
       </c>
       <c r="AL113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM113">
+        <v>1</v>
+      </c>
+      <c r="AN113">
+        <v>1</v>
+      </c>
+      <c r="AO113">
         <v>243994</v>
       </c>
     </row>

--- a/output/codespa.xlsx
+++ b/output/codespa.xlsx
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_LatinAmerica</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Africa</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Confessional</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>LatinAmerica</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Confessional</t>
+  </si>
+  <si>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
-  </si>
-  <si>
-    <t>Total_Fondos</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_Privados</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>Donor_Aid_Budget</t>
+  </si>
+  <si>
+    <t>Total_Funds</t>
+  </si>
+  <si>
+    <t>%_Private_Funds</t>
+  </si>
+  <si>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2880</v>
+        <v>2771.04675450926</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2620</v>
+        <v>2870.311589353206</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1620</v>
+        <v>1873.394108966653</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1380</v>
+        <v>1460.056109840828</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1443,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2820</v>
+        <v>2934.187009790061</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4940</v>
+        <v>5191.140356354663</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM7">
         <v>1</v>
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3970</v>
+        <v>4729.735976516416</v>
       </c>
       <c r="D8">
         <v>367000</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4060</v>
+        <v>4547.50930098406</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1620</v>
+        <v>1909.084588129339</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7800</v>
+        <v>9502.243585046588</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5130</v>
+        <v>6128.19547247793</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10380</v>
+        <v>14239.03920301361</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>2260</v>
+        <v>2100.656463590606</v>
       </c>
       <c r="D14">
         <v>229134</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>1010</v>
+        <v>1250.795760575873</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>3240</v>
+        <v>3587.883798243964</v>
       </c>
       <c r="D16">
         <v>2500000</v>
@@ -2907,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2930</v>
+        <v>2839.92516805933</v>
       </c>
       <c r="D18">
         <v>2500000</v>
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2890</v>
+        <v>2983.242707849043</v>
       </c>
       <c r="D19">
         <v>950000</v>
@@ -3151,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2710</v>
+        <v>2898.942214704482</v>
       </c>
       <c r="D20">
         <v>950000</v>
@@ -3273,7 +3273,7 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>650</v>
+        <v>665.6274194933962</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3375,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="AL21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM21">
         <v>1</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>1730</v>
+        <v>1904.346464968814</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>1460</v>
+        <v>1503.870423231357</v>
       </c>
       <c r="D23">
         <v>950000</v>
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5340</v>
+        <v>5555.389721901988</v>
       </c>
       <c r="D24">
         <v>950000</v>
@@ -3741,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="AL24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM24">
         <v>1</v>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4390</v>
+        <v>4633.590358399045</v>
       </c>
       <c r="D25">
         <v>1900000</v>
@@ -3883,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>5610</v>
+        <v>6336.709213679884</v>
       </c>
       <c r="D26">
         <v>1900000</v>
@@ -4005,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>1780</v>
+        <v>1955.461557360978</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4127,7 +4127,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>4410</v>
+        <v>5082.354756663512</v>
       </c>
       <c r="D28">
         <v>367000</v>
@@ -4249,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>11810</v>
+        <v>13825.35808833117</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4371,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>2460</v>
+        <v>2217.474008566157</v>
       </c>
       <c r="D30">
         <v>1600000</v>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>1250</v>
+        <v>1317.890706178356</v>
       </c>
       <c r="D31">
         <v>1200000</v>
@@ -4615,7 +4615,7 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>3420</v>
+        <v>3579.960081455846</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>3000</v>
+        <v>2948.84548976845</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -4981,7 +4981,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>3060</v>
+        <v>3083.80337578809</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -5103,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>2860</v>
+        <v>2965.153206179127</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -5225,7 +5225,7 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>710</v>
+        <v>691.8942672110555</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -5327,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="AL37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM37">
         <v>1</v>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>1860</v>
+        <v>1939.33862702996</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5469,7 +5469,7 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>1570</v>
+        <v>1577.487171555845</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -5591,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>5540</v>
+        <v>5660.517066940175</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -5693,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="AL40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM40">
         <v>1</v>
@@ -5713,7 +5713,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>1990</v>
+        <v>2024.117324382548</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -5835,7 +5835,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>6320</v>
+        <v>6711.616186806423</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -5957,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>4870</v>
+        <v>4921.848409120176</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -6079,7 +6079,7 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>4970</v>
+        <v>5360.226632400601</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -6201,7 +6201,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>2610</v>
+        <v>2264.394087033834</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -6323,7 +6323,7 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>1370</v>
+        <v>1385.890384668919</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -6445,7 +6445,7 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>2250</v>
+        <v>2094.024217383061</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -6567,7 +6567,7 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>5790</v>
+        <v>5642.578115155247</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -6689,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>5390</v>
+        <v>5122.180090208862</v>
       </c>
       <c r="D49">
         <v>273000</v>
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>7290</v>
+        <v>6911.59200404802</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -6933,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>5790</v>
+        <v>5745.422744292303</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="AL51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM51">
         <v>1</v>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>1690</v>
+        <v>1657.651524528445</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -7177,7 +7177,7 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>3100</v>
+        <v>2999.422762626143</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -7299,7 +7299,7 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>3210</v>
+        <v>3156.723844635973</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -7421,7 +7421,7 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>1950</v>
+        <v>1982.009737844954</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -7543,7 +7543,7 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>2980</v>
+        <v>2995.45235738661</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -7665,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="C57">
-        <v>4170</v>
+        <v>3748.449444923865</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -7909,7 +7909,7 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>2970</v>
+        <v>2379.668184479739</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>1540</v>
+        <v>1443.492614888721</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -8153,7 +8153,7 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>2590</v>
+        <v>2201.396847776877</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -8275,7 +8275,7 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>6420</v>
+        <v>5919.20956823756</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -8397,7 +8397,7 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>5810</v>
+        <v>5295.682695961288</v>
       </c>
       <c r="D63">
         <v>273000</v>
@@ -8519,7 +8519,7 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>7910</v>
+        <v>7200.731056811853</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -8641,7 +8641,7 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>6020</v>
+        <v>5955.175904294275</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -8743,7 +8743,7 @@
         <v>0</v>
       </c>
       <c r="AL65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM65">
         <v>1</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>1780</v>
+        <v>1716.389195271215</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -8885,7 +8885,7 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>3320</v>
+        <v>3056.152683606517</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -9007,7 +9007,7 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>3350</v>
+        <v>3212.740625904757</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -9129,7 +9129,7 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>1990</v>
+        <v>2000.792448761861</v>
       </c>
       <c r="D69">
         <v>120000</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>3090</v>
+        <v>3087.12349650562</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -9373,7 +9373,7 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <v>4780</v>
+        <v>3796.882621798447</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -9617,7 +9617,7 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>3290</v>
+        <v>2497.68592515536</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -9739,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>1720</v>
+        <v>1505.810948829135</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -9861,7 +9861,7 @@
         <v>1</v>
       </c>
       <c r="C75">
-        <v>5010</v>
+        <v>3843.198240901342</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -9983,7 +9983,7 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>2830</v>
+        <v>2286.013198234259</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -10105,7 +10105,7 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>8190</v>
+        <v>7449.08671983612</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -10227,7 +10227,7 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <v>6110</v>
+        <v>5412.131646018807</v>
       </c>
       <c r="D78">
         <v>2500000</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="C79">
-        <v>3400</v>
+        <v>3252.634165082374</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -10471,7 +10471,7 @@
         <v>0</v>
       </c>
       <c r="C80">
-        <v>3450</v>
+        <v>2612.856880840196</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -10593,7 +10593,7 @@
         <v>0</v>
       </c>
       <c r="C81">
-        <v>3460</v>
+        <v>3137.260298393558</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -10715,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>1990</v>
+        <v>2025.814194788851</v>
       </c>
       <c r="D82">
         <v>120000</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="C83">
-        <v>3060</v>
+        <v>3125.07948072635</v>
       </c>
       <c r="D83">
         <v>2500000</v>
@@ -10959,7 +10959,7 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>1850</v>
+        <v>1775.027517189621</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>6530</v>
+        <v>5996.49696468919</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -11325,7 +11325,7 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <v>6310</v>
+        <v>6301.696269820412</v>
       </c>
       <c r="D87">
         <v>187890</v>
@@ -11427,7 +11427,7 @@
         <v>0</v>
       </c>
       <c r="AL87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM87">
         <v>1</v>
@@ -11447,7 +11447,7 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>1880</v>
+        <v>1579.189101937001</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -11569,7 +11569,7 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>4520</v>
+        <v>3748.320622951519</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -11691,7 +11691,7 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <v>2960</v>
+        <v>2361.056581219794</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -11813,7 +11813,7 @@
         <v>0</v>
       </c>
       <c r="C91">
-        <v>7330</v>
+        <v>7580.275568826287</v>
       </c>
       <c r="D91">
         <v>227500</v>
@@ -11935,7 +11935,7 @@
         <v>0</v>
       </c>
       <c r="C92">
-        <v>5970</v>
+        <v>5330.539154475424</v>
       </c>
       <c r="D92">
         <v>2500000</v>
@@ -12057,7 +12057,7 @@
         <v>0</v>
       </c>
       <c r="C93">
-        <v>3440</v>
+        <v>3314.741082534716</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -12179,7 +12179,7 @@
         <v>0</v>
       </c>
       <c r="C94">
-        <v>3510</v>
+        <v>2735.187532014817</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -12301,7 +12301,7 @@
         <v>0</v>
       </c>
       <c r="C95">
-        <v>3620</v>
+        <v>3210.869677115934</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -12423,7 +12423,7 @@
         <v>0</v>
       </c>
       <c r="C96">
-        <v>2040</v>
+        <v>2067.29003376698</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -12545,7 +12545,7 @@
         <v>0</v>
       </c>
       <c r="C97">
-        <v>3020</v>
+        <v>3222.05417836739</v>
       </c>
       <c r="D97">
         <v>2500000</v>
@@ -12667,7 +12667,7 @@
         <v>0</v>
       </c>
       <c r="C98">
-        <v>1910</v>
+        <v>1836.014008604312</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -12789,7 +12789,7 @@
         <v>0</v>
       </c>
       <c r="C99">
-        <v>6340</v>
+        <v>6114.227214287786</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -13033,7 +13033,7 @@
         <v>0</v>
       </c>
       <c r="C101">
-        <v>6480</v>
+        <v>6661.86504232374</v>
       </c>
       <c r="D101">
         <v>187890</v>
@@ -13135,7 +13135,7 @@
         <v>0</v>
       </c>
       <c r="AL101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM101">
         <v>1</v>
@@ -13155,7 +13155,7 @@
         <v>0</v>
       </c>
       <c r="C102">
-        <v>1970</v>
+        <v>1667.171891046301</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -13277,7 +13277,7 @@
         <v>1</v>
       </c>
       <c r="C103">
-        <v>3770</v>
+        <v>3530.309422482455</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -13399,7 +13399,7 @@
         <v>0</v>
       </c>
       <c r="C104">
-        <v>3040</v>
+        <v>2425.561644739583</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -13521,7 +13521,7 @@
         <v>0</v>
       </c>
       <c r="C105">
-        <v>6460</v>
+        <v>7633.969039669125</v>
       </c>
       <c r="D105">
         <v>227500</v>
@@ -13643,7 +13643,7 @@
         <v>0</v>
       </c>
       <c r="C106">
-        <v>1820</v>
+        <v>2854.757682901436</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -13765,7 +13765,7 @@
         <v>0</v>
       </c>
       <c r="C107">
-        <v>5810</v>
+        <v>5176.058803160127</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -13887,7 +13887,7 @@
         <v>0</v>
       </c>
       <c r="C108">
-        <v>3570</v>
+        <v>2886.897484630703</v>
       </c>
       <c r="D108">
         <v>300000</v>
@@ -14009,7 +14009,7 @@
         <v>0</v>
       </c>
       <c r="C109">
-        <v>3800</v>
+        <v>3242.636921959078</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -14131,7 +14131,7 @@
         <v>0</v>
       </c>
       <c r="C110">
-        <v>2890</v>
+        <v>3212.81539531051</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -14253,7 +14253,7 @@
         <v>0</v>
       </c>
       <c r="C111">
-        <v>2000</v>
+        <v>1895.214690888655</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -14375,7 +14375,7 @@
         <v>0</v>
       </c>
       <c r="C112">
-        <v>6120</v>
+        <v>6262.368904654469</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -14497,7 +14497,7 @@
         <v>0</v>
       </c>
       <c r="C113">
-        <v>6640</v>
+        <v>7026.178156858586</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -14599,7 +14599,7 @@
         <v>0</v>
       </c>
       <c r="AL113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM113">
         <v>1</v>

--- a/output/codespa.xlsx
+++ b/output/codespa.xlsx
@@ -2785,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>334.0215725731523</v>
       </c>
       <c r="D17">
         <v>2300000</v>
@@ -4130,7 +4130,7 @@
         <v>5082.354756663512</v>
       </c>
       <c r="D28">
-        <v>367000</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>170058</v>
@@ -4737,7 +4737,7 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>345.2661148508273</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -7787,7 +7787,7 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>357.5982958925156</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -8159,7 +8159,7 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>161159.5</v>
+        <v>5766559</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -8281,7 +8281,7 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>871398</v>
+        <v>7514787</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -8400,10 +8400,10 @@
         <v>5295.682695961288</v>
       </c>
       <c r="D63">
-        <v>273000</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>974220.5</v>
+        <v>6973525</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -8525,7 +8525,7 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>801820.5</v>
+        <v>6559745</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -8647,7 +8647,7 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>1242592.5</v>
+        <v>740195</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>340627.5</v>
+        <v>760607</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -8891,7 +8891,7 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>1175648</v>
+        <v>981843</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -9013,7 +9013,7 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>251041.5</v>
+        <v>333992</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -9135,7 +9135,7 @@
         <v>120000</v>
       </c>
       <c r="E69">
-        <v>251041.5</v>
+        <v>661155</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>962403.5</v>
+        <v>3580946</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -9379,7 +9379,7 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>914062.5</v>
+        <v>484688</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>1</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>375.2191755030593</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>1041401</v>
+        <v>349062</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -9623,7 +9623,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>696500</v>
+        <v>2378514</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -9745,7 +9745,7 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>616150.5</v>
+        <v>2378514</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -10718,7 +10718,7 @@
         <v>2025.814194788851</v>
       </c>
       <c r="D82">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="E82">
         <v>251041.5</v>
@@ -11203,7 +11203,7 @@
         <v>1</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>397.3416704698143</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -11566,7 +11566,7 @@
         <v>128</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89">
         <v>3748.320622951519</v>
@@ -11575,7 +11575,7 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>147231.38</v>
+        <v>914062.5</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -11697,7 +11697,7 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>81718</v>
+        <v>161159.5</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -11819,7 +11819,7 @@
         <v>227500</v>
       </c>
       <c r="E91">
-        <v>149416.5</v>
+        <v>801820.5</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -11938,10 +11938,10 @@
         <v>5330.539154475424</v>
       </c>
       <c r="D92">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="E92">
-        <v>1818097.5</v>
+        <v>974220.5</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -12063,7 +12063,7 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>17288.5</v>
+        <v>251041.5</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -12185,7 +12185,7 @@
         <v>0</v>
       </c>
       <c r="E94">
-        <v>41750.46</v>
+        <v>696500</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -12307,7 +12307,7 @@
         <v>0</v>
       </c>
       <c r="E95">
-        <v>228774</v>
+        <v>1175648</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -12429,7 +12429,7 @@
         <v>0</v>
       </c>
       <c r="E96">
-        <v>2721</v>
+        <v>251041.5</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -12548,10 +12548,10 @@
         <v>3222.05417836739</v>
       </c>
       <c r="D97">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="E97">
-        <v>206109.53</v>
+        <v>962403.5</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -12673,7 +12673,7 @@
         <v>0</v>
       </c>
       <c r="E98">
-        <v>136471</v>
+        <v>340627.5</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -12795,7 +12795,7 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>310801.5</v>
+        <v>871398</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -12908,16 +12908,16 @@
         <v>139</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>411.0205730866137</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>41271.5</v>
+        <v>1041401</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -13036,10 +13036,10 @@
         <v>6661.86504232374</v>
       </c>
       <c r="D101">
-        <v>187890</v>
+        <v>0</v>
       </c>
       <c r="E101">
-        <v>376066</v>
+        <v>1242592.5</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -13161,7 +13161,7 @@
         <v>0</v>
       </c>
       <c r="E102">
-        <v>47500</v>
+        <v>616150.5</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -13524,7 +13524,7 @@
         <v>7633.969039669125</v>
       </c>
       <c r="D105">
-        <v>227500</v>
+        <v>0</v>
       </c>
       <c r="E105">
         <v>149416.5</v>
